--- a/doc/backend/api/TRN-MiniBlog_API-Specification_QuangVo.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_QuangVo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="957" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="957" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="520">
   <si>
     <t>Description</t>
   </si>
@@ -1018,9 +1018,6 @@
     <t>Get All Post</t>
   </si>
   <si>
-    <t>1: active, 0: inactive</t>
-  </si>
-  <si>
     <t>List post</t>
   </si>
   <si>
@@ -1684,9 +1681,6 @@
     <t>http://{domain}/v1/posts/</t>
   </si>
   <si>
-    <t>http://{domain}/v1/posts/{post_id}/pub</t>
-  </si>
-  <si>
     <t>/v1/posts/{post_id}/pub</t>
   </si>
   <si>
@@ -1774,9 +1768,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Token has expired.</t>
-  </si>
-  <si>
     <t>http://{domain}/v1/users/{id}</t>
   </si>
   <si>
@@ -1835,6 +1826,27 @@
   </si>
   <si>
     <t>http://{domain}/v1/users/search/name={name}</t>
+  </si>
+  <si>
+    <t>http://{domain}/v1/posts/create</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Post object</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>This post does not belong to the user with id</t>
+  </si>
+  <si>
+    <t>http://{domain}/v1/posts/{post_id}/{status}</t>
+  </si>
+  <si>
+    <t>Access token has expired.</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="570">
+  <cellStyleXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2673,6 +2685,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3901,7 +3915,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="570">
+  <cellStyles count="572">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4396,6 +4410,8 @@
     <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5069,7 +5085,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/v1/posts/pub</a:t>
+            <a:t>/v1/posts/1/status/1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -5126,33 +5142,6 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Content-Type:  application/json</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"id":1,"status":1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5299,7 +5288,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code": 206,</a:t>
+            <a:t>      "code": 207,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5365,43 +5354,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "id": 1,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "title": "title 1",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "status": active,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "created_at": "2014/12/12",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "modified_at": "2014/12/12"  </a:t>
+            <a:t>      "status": true</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -6583,33 +6536,6 @@
             <a:t>Content-Type:  application/json</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"id":1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -18018,7 +17944,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/v1/posts   </a:t>
+            <a:t>/v1/posts/create   </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -18098,8 +18024,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18108,8 +18034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="841829" y="10475686"/>
-          <a:ext cx="9582150" cy="3608614"/>
+          <a:off x="841829" y="9713686"/>
+          <a:ext cx="9188450" cy="3837214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18280,7 +18206,79 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      null      </a:t>
+            <a:t>      "user_id": 1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "id": 1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "title": "title",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "description": "description",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "content": "content",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "created_at": "2015/1/1/",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at": "2015/1/1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "status": true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "image": "image"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -19394,7 +19392,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -19499,7 +19497,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -19541,10 +19539,10 @@
         <v>169</v>
       </c>
       <c r="C8" s="220" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="154"/>
       <c r="F8" s="154"/>
@@ -19564,7 +19562,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -19688,7 +19686,7 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="143" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D15" s="145" t="s">
         <v>227</v>
@@ -20815,7 +20813,7 @@
         <v>143</v>
       </c>
       <c r="L63" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
@@ -21390,7 +21388,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -21495,7 +21493,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -21540,7 +21538,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="249" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="154"/>
       <c r="F8" s="154"/>
@@ -21560,7 +21558,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -21717,10 +21715,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="143" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" s="145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E16" s="144" t="s">
         <v>231</v>
@@ -21738,7 +21736,7 @@
         <v>165</v>
       </c>
       <c r="J16" s="348" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K16" s="335"/>
       <c r="L16" s="335"/>
@@ -21750,10 +21748,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="143" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="145" t="s">
         <v>393</v>
-      </c>
-      <c r="D17" s="145" t="s">
-        <v>394</v>
       </c>
       <c r="E17" s="144" t="s">
         <v>161</v>
@@ -21768,10 +21766,10 @@
         <v>45</v>
       </c>
       <c r="I17" s="167" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J17" s="348" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K17" s="335"/>
       <c r="L17" s="335"/>
@@ -22092,7 +22090,7 @@
         <v>143</v>
       </c>
       <c r="L32" s="145" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
@@ -22665,7 +22663,7 @@
         <v>143</v>
       </c>
       <c r="L59" s="145" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
@@ -23222,7 +23220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -23244,7 +23242,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="171"/>
       <c r="C1" s="171"/>
@@ -23349,7 +23347,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="178" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D6" s="176"/>
       <c r="E6" s="176"/>
@@ -23536,7 +23534,7 @@
       <c r="A15" s="171"/>
       <c r="B15" s="187"/>
       <c r="C15" s="184" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D15" s="184" t="s">
         <v>23</v>
@@ -23554,10 +23552,10 @@
         <v>132</v>
       </c>
       <c r="I15" s="188" t="s">
+        <v>423</v>
+      </c>
+      <c r="J15" s="353" t="s">
         <v>424</v>
-      </c>
-      <c r="J15" s="353" t="s">
-        <v>425</v>
       </c>
       <c r="K15" s="358"/>
       <c r="L15" s="354"/>
@@ -23940,7 +23938,7 @@
       </c>
       <c r="E32" s="208"/>
       <c r="F32" s="184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G32" s="185" t="s">
         <v>276</v>
@@ -24896,8 +24894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -24919,7 +24917,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -25024,7 +25022,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -25069,7 +25067,7 @@
         <v>274</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="154"/>
       <c r="F8" s="154"/>
@@ -25089,7 +25087,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -25654,7 +25652,7 @@
         <v>143</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -25730,15 +25728,31 @@
       <c r="A36" s="66"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="336"/>
+      <c r="D36" s="336" t="s">
+        <v>515</v>
+      </c>
       <c r="E36" s="338"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="145"/>
+      <c r="F36" s="143" t="s">
+        <v>514</v>
+      </c>
+      <c r="G36" s="144" t="s">
+        <v>516</v>
+      </c>
+      <c r="H36" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="80">
+        <v>1</v>
+      </c>
+      <c r="J36" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="145" t="s">
+        <v>515</v>
+      </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
@@ -26194,7 +26208,7 @@
         <v>143</v>
       </c>
       <c r="L59" s="145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
@@ -26750,8 +26764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26773,7 +26787,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -26878,7 +26892,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -26923,7 +26937,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -26943,7 +26957,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -27066,30 +27080,14 @@
     <row r="15" spans="1:15" ht="20" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>269</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="230">
-        <v>1</v>
-      </c>
-      <c r="J15" s="336" t="s">
-        <v>282</v>
-      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="336"/>
       <c r="K15" s="349"/>
       <c r="L15" s="345"/>
       <c r="M15" s="66"/>
@@ -27099,30 +27097,14 @@
     <row r="16" spans="1:15" ht="20" customHeight="1">
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="143" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="145" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>468</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="80">
-        <v>1</v>
-      </c>
-      <c r="J16" s="336" t="s">
-        <v>295</v>
-      </c>
+      <c r="C16" s="143"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="336"/>
       <c r="K16" s="337"/>
       <c r="L16" s="338"/>
       <c r="M16" s="66"/>
@@ -27442,7 +27424,7 @@
         <v>143</v>
       </c>
       <c r="L31" s="145" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
@@ -27592,7 +27574,7 @@
         <v>284</v>
       </c>
       <c r="G36" s="144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H36" s="80" t="s">
         <v>180</v>
@@ -27607,7 +27589,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="145" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -27618,14 +27600,14 @@
       <c r="B37" s="91"/>
       <c r="C37" s="101"/>
       <c r="D37" s="262" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E37" s="263"/>
       <c r="F37" s="143" t="s">
         <v>222</v>
       </c>
       <c r="G37" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H37" s="80" t="s">
         <v>180</v>
@@ -27640,7 +27622,7 @@
         <v>132</v>
       </c>
       <c r="L37" s="145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -27651,14 +27633,14 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="336" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E38" s="338"/>
       <c r="F38" s="143" t="s">
         <v>225</v>
       </c>
       <c r="G38" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H38" s="80" t="s">
         <v>180</v>
@@ -27673,7 +27655,7 @@
         <v>132</v>
       </c>
       <c r="L38" s="145" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -28130,7 +28112,7 @@
         <v>143</v>
       </c>
       <c r="L61" s="145" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M61" s="66"/>
       <c r="N61" s="66"/>
@@ -28711,7 +28693,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -28733,7 +28715,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -28774,7 +28756,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -28816,7 +28798,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -28861,7 +28843,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -28881,7 +28863,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -29462,7 +29444,7 @@
         <v>143</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -29678,7 +29660,7 @@
         <v>222</v>
       </c>
       <c r="G40" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H40" s="170" t="s">
         <v>180</v>
@@ -29693,7 +29675,7 @@
         <v>132</v>
       </c>
       <c r="L40" s="145" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -29711,7 +29693,7 @@
         <v>225</v>
       </c>
       <c r="G41" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H41" s="170" t="s">
         <v>180</v>
@@ -29726,7 +29708,7 @@
         <v>132</v>
       </c>
       <c r="L41" s="145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -30183,7 +30165,7 @@
         <v>143</v>
       </c>
       <c r="L64" s="145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
@@ -30761,8 +30743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="A18:C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -30784,7 +30766,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -30889,7 +30871,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -30910,7 +30892,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="337"/>
       <c r="E7" s="337"/>
@@ -30934,7 +30916,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -30954,7 +30936,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -31077,30 +31059,14 @@
     <row r="15" spans="1:15" ht="20" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>269</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="83">
-        <v>1</v>
-      </c>
-      <c r="J15" s="161" t="s">
-        <v>282</v>
-      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="161"/>
       <c r="K15" s="158"/>
       <c r="L15" s="162"/>
       <c r="M15" s="66"/>
@@ -31420,7 +31386,7 @@
         <v>143</v>
       </c>
       <c r="L30" s="145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
@@ -31960,7 +31926,7 @@
         <v>143</v>
       </c>
       <c r="L56" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
@@ -32535,7 +32501,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -32640,7 +32606,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -32685,7 +32651,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -32705,7 +32671,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -33230,11 +33196,11 @@
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
       <c r="D33" s="336" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="338"/>
       <c r="F33" s="143" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G33" s="144" t="s">
         <v>276</v>
@@ -33252,7 +33218,7 @@
         <v>132</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -33709,7 +33675,7 @@
         <v>143</v>
       </c>
       <c r="L70" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
@@ -34195,7 +34161,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -34217,7 +34183,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -34258,7 +34224,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -34279,7 +34245,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -34300,7 +34266,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -34345,7 +34311,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -34365,7 +34331,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -34906,11 +34872,11 @@
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
       <c r="D33" s="336" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="338"/>
       <c r="F33" s="143" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G33" s="144" t="s">
         <v>276</v>
@@ -34928,7 +34894,7 @@
         <v>132</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -35385,7 +35351,7 @@
         <v>143</v>
       </c>
       <c r="L68" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
@@ -35872,7 +35838,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -35894,7 +35860,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -35935,7 +35901,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -35956,7 +35922,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -35977,7 +35943,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -36022,7 +35988,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -36042,7 +36008,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -36184,10 +36150,10 @@
         <v>132</v>
       </c>
       <c r="I15" s="229" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J15" s="161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K15" s="158"/>
       <c r="L15" s="159"/>
@@ -36541,7 +36507,7 @@
         <v>143</v>
       </c>
       <c r="L31" s="145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
@@ -36622,7 +36588,7 @@
       </c>
       <c r="E34" s="338"/>
       <c r="F34" s="143" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G34" s="144" t="s">
         <v>269</v>
@@ -36655,7 +36621,7 @@
       </c>
       <c r="E35" s="338"/>
       <c r="F35" s="143" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G35" s="144" t="s">
         <v>269</v>
@@ -36706,7 +36672,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -36717,14 +36683,14 @@
       <c r="B37" s="91"/>
       <c r="C37" s="101"/>
       <c r="D37" s="259" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E37" s="260"/>
       <c r="F37" s="143" t="s">
         <v>222</v>
       </c>
       <c r="G37" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H37" s="170" t="s">
         <v>180</v>
@@ -36739,7 +36705,7 @@
         <v>132</v>
       </c>
       <c r="L37" s="145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -36771,7 +36737,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="145" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -36804,7 +36770,7 @@
         <v>132</v>
       </c>
       <c r="L39" s="145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -37261,7 +37227,7 @@
         <v>143</v>
       </c>
       <c r="L62" s="145" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -38438,7 +38404,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -38460,7 +38426,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -38501,7 +38467,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -38522,7 +38488,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -38543,7 +38509,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -38588,7 +38554,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -38608,7 +38574,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -38753,7 +38719,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="336" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K15" s="349"/>
       <c r="L15" s="345"/>
@@ -38816,10 +38782,10 @@
         <v>132</v>
       </c>
       <c r="I17" s="237" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="336" t="s">
         <v>314</v>
-      </c>
-      <c r="J17" s="336" t="s">
-        <v>315</v>
       </c>
       <c r="K17" s="349"/>
       <c r="L17" s="345"/>
@@ -39123,7 +39089,7 @@
         <v>143</v>
       </c>
       <c r="L31" s="145" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
@@ -39204,7 +39170,7 @@
       </c>
       <c r="E34" s="371"/>
       <c r="F34" s="143" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G34" s="144" t="s">
         <v>269</v>
@@ -39237,7 +39203,7 @@
       </c>
       <c r="E35" s="338"/>
       <c r="F35" s="143" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G35" s="144" t="s">
         <v>269</v>
@@ -39288,7 +39254,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -39321,7 +39287,7 @@
         <v>132</v>
       </c>
       <c r="L37" s="145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -39339,7 +39305,7 @@
         <v>222</v>
       </c>
       <c r="G38" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H38" s="80" t="s">
         <v>180</v>
@@ -39354,7 +39320,7 @@
         <v>132</v>
       </c>
       <c r="L38" s="145" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -39372,7 +39338,7 @@
         <v>225</v>
       </c>
       <c r="G39" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H39" s="80" t="s">
         <v>180</v>
@@ -39387,7 +39353,7 @@
         <v>132</v>
       </c>
       <c r="L39" s="145" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -39863,7 +39829,7 @@
         <v>143</v>
       </c>
       <c r="L63" s="145" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
@@ -40446,7 +40412,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -40468,7 +40434,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -40509,7 +40475,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -40530,7 +40496,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -40551,7 +40517,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -40572,7 +40538,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="337"/>
       <c r="E7" s="337"/>
@@ -40596,7 +40562,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -40616,7 +40582,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -40761,7 +40727,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="336" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K15" s="349"/>
       <c r="L15" s="345"/>
@@ -40773,10 +40739,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="82"/>
       <c r="C16" s="143" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D16" s="145" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E16" s="144" t="s">
         <v>269</v>
@@ -41098,7 +41064,7 @@
         <v>143</v>
       </c>
       <c r="L30" s="145" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
@@ -41638,7 +41604,7 @@
         <v>143</v>
       </c>
       <c r="L56" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
@@ -42214,7 +42180,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -42236,7 +42202,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -42277,7 +42243,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -42298,7 +42264,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -42319,7 +42285,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -42364,7 +42330,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -42384,7 +42350,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -42508,10 +42474,10 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="143" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D15" s="145" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E15" s="144" t="s">
         <v>269</v>
@@ -42925,11 +42891,11 @@
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
       <c r="D33" s="336" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="338"/>
       <c r="F33" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G33" s="144" t="s">
         <v>276</v>
@@ -42947,7 +42913,7 @@
         <v>132</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -43404,7 +43370,7 @@
         <v>143</v>
       </c>
       <c r="L62" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -43860,7 +43826,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -43882,7 +43848,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -43923,7 +43889,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -43944,7 +43910,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="336" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="337"/>
       <c r="E5" s="337"/>
@@ -43965,7 +43931,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -44010,7 +43976,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -44030,7 +43996,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -44154,10 +44120,10 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="143" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="145" t="s">
         <v>389</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>390</v>
       </c>
       <c r="E15" s="144" t="s">
         <v>231</v>
@@ -44172,10 +44138,10 @@
         <v>132</v>
       </c>
       <c r="I15" s="230" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J15" s="336" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K15" s="349"/>
       <c r="L15" s="345"/>
@@ -44569,11 +44535,11 @@
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
       <c r="D33" s="336" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="338"/>
       <c r="F33" s="143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G33" s="144" t="s">
         <v>276</v>
@@ -44591,7 +44557,7 @@
         <v>132</v>
       </c>
       <c r="L33" s="145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -45048,7 +45014,7 @@
         <v>143</v>
       </c>
       <c r="L62" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
@@ -45916,8 +45882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -45993,7 +45959,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="313" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E5" s="313"/>
       <c r="F5" s="141" t="s">
@@ -46066,7 +46032,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="315" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E10" s="315"/>
       <c r="F10" s="136"/>
@@ -46168,10 +46134,6 @@
       <c r="C19" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="315" t="s">
-        <v>495</v>
-      </c>
-      <c r="E19" s="315"/>
       <c r="F19" s="138"/>
       <c r="G19" s="124"/>
       <c r="H19" s="124"/>
@@ -46181,9 +46143,11 @@
         <v>2</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="315"/>
+        <v>329</v>
+      </c>
+      <c r="D20" s="315" t="s">
+        <v>519</v>
+      </c>
       <c r="E20" s="315"/>
       <c r="F20" s="138"/>
       <c r="G20" s="124"/>
@@ -46194,7 +46158,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" s="315"/>
       <c r="E21" s="315"/>
@@ -46207,7 +46171,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D22" s="315"/>
       <c r="E22" s="315"/>
@@ -46220,7 +46184,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D23" s="315"/>
       <c r="E23" s="315"/>
@@ -46233,7 +46197,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D24" s="315"/>
       <c r="E24" s="315"/>
@@ -46272,7 +46236,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="313" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E28" s="313"/>
       <c r="F28" s="142"/>
@@ -46287,7 +46251,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="313" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E29" s="313"/>
       <c r="F29" s="138"/>
@@ -46302,7 +46266,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="318" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E30" s="319"/>
       <c r="F30" s="138"/>
@@ -46317,7 +46281,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="318" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31" s="319"/>
       <c r="F31" s="138"/>
@@ -46332,7 +46296,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="318" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E32" s="319"/>
       <c r="F32" s="138"/>
@@ -46347,7 +46311,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="318" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E33" s="319"/>
       <c r="F33" s="138"/>
@@ -46362,7 +46326,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="313" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E34" s="313"/>
       <c r="F34" s="138"/>
@@ -46377,7 +46341,7 @@
         <v>83</v>
       </c>
       <c r="D35" s="318" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E35" s="319"/>
       <c r="F35" s="138"/>
@@ -46392,7 +46356,7 @@
         <v>88</v>
       </c>
       <c r="D36" s="318" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" s="319"/>
       <c r="F36" s="138"/>
@@ -46404,10 +46368,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" s="318" t="s">
         <v>435</v>
-      </c>
-      <c r="D37" s="318" t="s">
-        <v>436</v>
       </c>
       <c r="E37" s="319"/>
       <c r="F37" s="138"/>
@@ -46419,10 +46383,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D38" s="318" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E38" s="319"/>
       <c r="F38" s="138"/>
@@ -46442,7 +46406,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C42" s="131"/>
       <c r="D42" s="131"/>
@@ -46466,10 +46430,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D44" s="315" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E44" s="315"/>
       <c r="F44" s="138"/>
@@ -46482,7 +46446,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="315" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E45" s="315"/>
       <c r="F45" s="138"/>
@@ -46495,7 +46459,7 @@
         <v>108</v>
       </c>
       <c r="D46" s="315" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E46" s="315"/>
       <c r="F46" s="138"/>
@@ -46508,7 +46472,7 @@
         <v>109</v>
       </c>
       <c r="D47" s="315" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="315"/>
       <c r="F47" s="138"/>
@@ -46520,13 +46484,15 @@
       <c r="C48" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="315"/>
+      <c r="D48" s="315" t="s">
+        <v>517</v>
+      </c>
       <c r="E48" s="315"/>
       <c r="F48" s="138"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="131"/>
       <c r="D51" s="131"/>
@@ -46553,7 +46519,7 @@
         <v>94</v>
       </c>
       <c r="D53" s="315" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E53" s="315"/>
       <c r="F53" s="138"/>
@@ -46626,7 +46592,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="131"/>
       <c r="D62" s="131"/>
@@ -46650,10 +46616,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D64" s="320" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64" s="321"/>
       <c r="F64" s="138"/>
@@ -46663,10 +46629,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D65" s="320" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E65" s="321"/>
       <c r="F65" s="138"/>
@@ -46676,10 +46642,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" s="320" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E66" s="321"/>
       <c r="F66" s="138"/>
@@ -46689,10 +46655,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D67" s="320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E67" s="321"/>
       <c r="F67" s="138"/>
@@ -46702,10 +46668,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D68" s="320" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E68" s="321"/>
       <c r="F68" s="138"/>
@@ -46715,10 +46681,10 @@
         <v>7</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" s="266" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E69" s="267"/>
       <c r="F69" s="138"/>
@@ -46728,10 +46694,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D70" s="320" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E70" s="321"/>
       <c r="F70" s="138"/>
@@ -46741,10 +46707,10 @@
         <v>9</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D71" s="320" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E71" s="321"/>
       <c r="F71" s="138"/>
@@ -46754,10 +46720,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D72" s="320" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E72" s="321"/>
       <c r="F72" s="138"/>
@@ -46767,10 +46733,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D73" s="320" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" s="321"/>
       <c r="F73" s="138"/>
@@ -46780,10 +46746,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="126" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="320" t="s">
         <v>367</v>
-      </c>
-      <c r="D74" s="320" t="s">
-        <v>368</v>
       </c>
       <c r="E74" s="321"/>
       <c r="F74" s="138"/>
@@ -46793,10 +46759,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D75" s="316" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E75" s="317"/>
       <c r="F75" s="138"/>
@@ -46806,10 +46772,10 @@
         <v>14</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D76" s="316" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E76" s="317"/>
       <c r="F76" s="138"/>
@@ -46819,10 +46785,10 @@
         <v>15</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D77" s="316" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E77" s="317"/>
       <c r="F77" s="138"/>
@@ -46832,10 +46798,10 @@
         <v>16</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D78" s="316" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E78" s="317"/>
       <c r="F78" s="138"/>
@@ -46845,14 +46811,14 @@
         <v>17</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D79" s="316"/>
       <c r="E79" s="317"/>
       <c r="F79" s="138"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="58">
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D78:E78"/>
@@ -46908,9 +46874,8 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
@@ -47008,22 +46973,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="256" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="324" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E5" s="106" t="s">
         <v>153</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I5" s="109"/>
       <c r="J5" s="38"/>
@@ -47040,13 +47005,13 @@
         <v>153</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I6" s="109"/>
       <c r="J6" s="38"/>
@@ -47056,20 +47021,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="255" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="325"/>
       <c r="E7" s="106" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H7" s="108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I7" s="109"/>
       <c r="J7" s="38"/>
@@ -47079,20 +47044,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="255" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" s="325"/>
       <c r="E8" s="221" t="s">
         <v>249</v>
       </c>
       <c r="F8" s="222" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="136" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I8" s="109"/>
       <c r="J8" s="38"/>
@@ -47102,20 +47067,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="255" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D9" s="325"/>
       <c r="E9" s="106" t="s">
         <v>234</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I9" s="109"/>
       <c r="J9" s="38"/>
@@ -47125,23 +47090,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="255" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D10" s="325"/>
       <c r="E10" s="221" t="s">
         <v>249</v>
       </c>
       <c r="F10" s="222" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G10" s="222" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H10" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="109" t="s">
         <v>415</v>
-      </c>
-      <c r="I10" s="109" t="s">
-        <v>416</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -47157,10 +47122,10 @@
         <v>234</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" s="108" t="s">
         <v>272</v>
@@ -47173,19 +47138,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="257" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="327" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E12" s="111" t="s">
         <v>153</v>
       </c>
       <c r="F12" s="112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G12" s="112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H12" s="113" t="s">
         <v>257</v>
@@ -47205,13 +47170,13 @@
         <v>234</v>
       </c>
       <c r="F13" s="226" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G13" s="226" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H13" s="227" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I13" s="131" t="s">
         <v>196</v>
@@ -47230,10 +47195,10 @@
         <v>234</v>
       </c>
       <c r="F14" s="112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H14" s="113" t="s">
         <v>285</v>
@@ -47250,13 +47215,13 @@
       </c>
       <c r="D15" s="328"/>
       <c r="E15" s="111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H15" s="113" t="s">
         <v>291</v>
@@ -47276,13 +47241,13 @@
         <v>249</v>
       </c>
       <c r="F16" s="112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H16" s="113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I16" s="109"/>
       <c r="J16" s="38"/>
@@ -47292,20 +47257,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="257" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="328"/>
       <c r="E17" s="111" t="s">
         <v>249</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H17" s="113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" s="109"/>
       <c r="J17" s="38"/>
@@ -47341,22 +47306,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="258" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="329" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E20" s="115" t="s">
         <v>153</v>
       </c>
       <c r="F20" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H20" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="109"/>
       <c r="J20" s="38"/>
@@ -47366,20 +47331,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="330"/>
       <c r="E21" s="115" t="s">
         <v>234</v>
       </c>
       <c r="F21" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H21" s="117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I21" s="109"/>
       <c r="J21" s="38"/>
@@ -47389,20 +47354,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="258" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D22" s="330"/>
       <c r="E22" s="115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G22" s="116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I22" s="109"/>
       <c r="J22" s="38"/>
@@ -47412,20 +47377,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="258" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D23" s="330"/>
       <c r="E23" s="115" t="s">
         <v>249</v>
       </c>
       <c r="F23" s="116" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G23" s="116" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H23" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I23" s="109"/>
       <c r="J23" s="38"/>
@@ -47435,20 +47400,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="258" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D24" s="330"/>
       <c r="E24" s="115" t="s">
         <v>249</v>
       </c>
       <c r="F24" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H24" s="117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I24" s="109"/>
       <c r="J24" s="38"/>
@@ -47603,7 +47568,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -47666,7 +47631,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="336" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="337"/>
       <c r="E4" s="337"/>
@@ -47708,7 +47673,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -47771,7 +47736,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -48701,7 +48666,7 @@
         <v>222</v>
       </c>
       <c r="G49" s="252" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>180</v>
@@ -48716,7 +48681,7 @@
         <v>132</v>
       </c>
       <c r="L49" s="145" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M49" s="66"/>
       <c r="N49" s="66"/>
@@ -48734,7 +48699,7 @@
         <v>225</v>
       </c>
       <c r="G50" s="252" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H50" s="80" t="s">
         <v>180</v>
@@ -48749,7 +48714,7 @@
         <v>132</v>
       </c>
       <c r="L50" s="145" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M50" s="66"/>
       <c r="N50" s="66"/>
@@ -48760,11 +48725,11 @@
       <c r="B51" s="97"/>
       <c r="C51" s="98"/>
       <c r="D51" s="241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E51" s="244"/>
       <c r="F51" s="143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G51" s="252" t="s">
         <v>161</v>
@@ -48782,7 +48747,7 @@
         <v>132</v>
       </c>
       <c r="L51" s="145" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
@@ -49742,7 +49707,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -49847,7 +49812,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -50088,7 +50053,7 @@
         <v>165</v>
       </c>
       <c r="J16" s="348" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K16" s="335"/>
       <c r="L16" s="335"/>
@@ -50426,7 +50391,7 @@
         <v>143</v>
       </c>
       <c r="L32" s="145" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
@@ -50503,11 +50468,11 @@
       <c r="B35" s="91"/>
       <c r="C35" s="101"/>
       <c r="D35" s="336" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" s="338"/>
       <c r="F35" s="143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G35" s="144" t="s">
         <v>231</v>
@@ -51400,7 +51365,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -51505,7 +51470,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -51550,7 +51515,7 @@
         <v>273</v>
       </c>
       <c r="D8" s="248" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="158"/>
       <c r="F8" s="158"/>
@@ -51694,10 +51659,10 @@
       <c r="A15" s="66"/>
       <c r="B15" s="82"/>
       <c r="C15" s="143" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="145" t="s">
         <v>389</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>390</v>
       </c>
       <c r="E15" s="144" t="s">
         <v>231</v>
@@ -51712,7 +51677,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="235" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J15" s="336"/>
       <c r="K15" s="337"/>
@@ -52017,7 +51982,7 @@
         <v>143</v>
       </c>
       <c r="L29" s="145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M29" s="66"/>
       <c r="N29" s="66"/>
@@ -52557,7 +52522,7 @@
         <v>143</v>
       </c>
       <c r="L55" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M55" s="66"/>
       <c r="N55" s="66"/>
@@ -53109,7 +53074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -53134,7 +53099,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20" customHeight="1">
       <c r="A1" s="254" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -53239,7 +53204,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -53284,7 +53249,7 @@
         <v>274</v>
       </c>
       <c r="D8" s="249" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="154"/>
       <c r="F8" s="154"/>
@@ -53304,7 +53269,7 @@
         <v>192</v>
       </c>
       <c r="C9" s="336" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="337"/>
       <c r="E9" s="337"/>
@@ -53902,7 +53867,7 @@
         <v>143</v>
       </c>
       <c r="L34" s="145" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -54184,7 +54149,7 @@
         <v>222</v>
       </c>
       <c r="G43" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H43" s="80" t="s">
         <v>180</v>
@@ -54199,7 +54164,7 @@
         <v>132</v>
       </c>
       <c r="L43" s="145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -54217,7 +54182,7 @@
         <v>225</v>
       </c>
       <c r="G44" s="144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H44" s="80" t="s">
         <v>180</v>
@@ -54232,7 +54197,7 @@
         <v>132</v>
       </c>
       <c r="L44" s="145" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
@@ -54689,7 +54654,7 @@
         <v>143</v>
       </c>
       <c r="L67" s="145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_QuangVo.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_QuangVo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="957" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25600" windowHeight="12720" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="539">
   <si>
     <t>Description</t>
   </si>
@@ -650,6 +650,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>response</t>
     </r>
@@ -706,6 +707,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create </t>
     </r>
@@ -715,6 +717,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">User </t>
     </r>
@@ -724,6 +727,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -733,6 +737,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ccount</t>
     </r>
@@ -887,6 +892,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>post.</t>
     </r>
@@ -969,6 +975,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>UT</t>
     </r>
@@ -1063,6 +1070,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>U</t>
     </r>
@@ -1071,6 +1079,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ser</t>
     </r>
@@ -1228,6 +1237,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1241,6 +1251,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1257,6 +1268,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -1273,6 +1285,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -1289,6 +1302,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -1314,6 +1328,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -1327,6 +1342,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1335,6 +1351,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1351,6 +1368,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -1397,6 +1415,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1410,6 +1429,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1513,6 +1533,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>json</t>
     </r>
@@ -1529,6 +1550,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/json</t>
     </r>
@@ -1593,6 +1615,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>and compared</t>
     </r>
@@ -1891,6 +1914,21 @@
   <si>
     <t>Deactivate Post</t>
   </si>
+  <si>
+    <t>Comment is not existed</t>
+  </si>
+  <si>
+    <t>Comment does not belongs to this user</t>
+  </si>
+  <si>
+    <t>Comment does not belongs to this post</t>
+  </si>
+  <si>
+    <t>Get all comments for a post failed</t>
+  </si>
+  <si>
+    <t>Get all comments for user failed</t>
+  </si>
 </sst>
 </file>
 
@@ -1944,6 +1982,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1951,18 +1990,21 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1970,18 +2012,21 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF963634"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1993,6 +2038,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -2005,38 +2051,46 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2084,22 +2138,26 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2111,11 +2169,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2128,6 +2188,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2145,17 +2206,20 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF963634"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3678,48 +3742,44 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3751,6 +3811,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3778,6 +3848,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3790,44 +3875,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3835,19 +3902,19 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3856,11 +3923,11 @@
     <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3892,24 +3959,6 @@
     <xf numFmtId="49" fontId="14" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3922,16 +3971,28 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3940,48 +4001,44 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3992,11 +4049,18 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="575">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -11438,7 +11502,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"code": 212,</a:t>
+            <a:t>"code": 213,</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -12990,7 +13054,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"code": 213,</a:t>
+            <a:t>"code": 214,</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -19698,299 +19762,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="280" t="s">
+      <c r="B1" s="309"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="282" t="s">
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="316" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="283"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285" t="s">
+      <c r="L1" s="317"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="298" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
-      <c r="Q1" s="286"/>
-      <c r="R1" s="286"/>
-      <c r="S1" s="286"/>
-      <c r="T1" s="286"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288" t="s">
+      <c r="O1" s="299"/>
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="299"/>
+      <c r="T1" s="299"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="289"/>
-      <c r="AA1" s="289"/>
-      <c r="AB1" s="289"/>
-      <c r="AC1" s="289"/>
-      <c r="AD1" s="290"/>
+      <c r="W1" s="320"/>
+      <c r="X1" s="320"/>
+      <c r="Y1" s="320"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="320"/>
+      <c r="AB1" s="320"/>
+      <c r="AC1" s="320"/>
+      <c r="AD1" s="321"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="308" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="280" t="s">
+      <c r="B2" s="309"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="294" t="s">
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="295"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="306" t="s">
+      <c r="L2" s="294"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="313" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="307"/>
-      <c r="P2" s="307"/>
-      <c r="Q2" s="307"/>
-      <c r="R2" s="307"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="307"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="291" t="s">
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
+      <c r="Q2" s="314"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="314"/>
+      <c r="T2" s="314"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="290" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="291" t="s">
+      <c r="W2" s="291"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="293"/>
-      <c r="AB2" s="291" t="s">
+      <c r="Z2" s="291"/>
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="290" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="293"/>
+      <c r="AC2" s="291"/>
+      <c r="AD2" s="292"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="297" t="s">
+      <c r="B3" s="294"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="294" t="s">
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="293" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="295"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="285" t="s">
+      <c r="L3" s="294"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="298" t="s">
         <v>148</v>
       </c>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="286"/>
-      <c r="U3" s="287"/>
-      <c r="V3" s="299" t="s">
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="300"/>
+      <c r="V3" s="301" t="s">
         <v>214</v>
       </c>
-      <c r="W3" s="300"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="302">
+      <c r="W3" s="302"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="304">
         <v>42031</v>
       </c>
-      <c r="Z3" s="303"/>
-      <c r="AA3" s="304"/>
-      <c r="AB3" s="305">
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="306"/>
+      <c r="AB3" s="307">
         <v>42032</v>
       </c>
-      <c r="AC3" s="303"/>
-      <c r="AD3" s="304"/>
+      <c r="AC3" s="305"/>
+      <c r="AD3" s="306"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="321" t="s">
+      <c r="B8" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321" t="s">
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="321"/>
-      <c r="H8" s="321" t="s">
+      <c r="G8" s="288"/>
+      <c r="H8" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="321"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="321" t="s">
+      <c r="I8" s="288"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="321"/>
-      <c r="R8" s="321"/>
-      <c r="S8" s="321"/>
-      <c r="T8" s="321"/>
-      <c r="U8" s="321"/>
-      <c r="V8" s="321"/>
-      <c r="W8" s="321"/>
-      <c r="X8" s="321" t="s">
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="288"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="288"/>
+      <c r="R8" s="288"/>
+      <c r="S8" s="288"/>
+      <c r="T8" s="288"/>
+      <c r="U8" s="288"/>
+      <c r="V8" s="288"/>
+      <c r="W8" s="288"/>
+      <c r="X8" s="288" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="321"/>
-      <c r="Z8" s="321"/>
-      <c r="AA8" s="321"/>
-      <c r="AB8" s="321"/>
-      <c r="AC8" s="321"/>
+      <c r="Y8" s="288"/>
+      <c r="Z8" s="288"/>
+      <c r="AA8" s="288"/>
+      <c r="AB8" s="288"/>
+      <c r="AC8" s="288"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="309"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="310"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="315"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="316"/>
-      <c r="N9" s="316"/>
-      <c r="O9" s="316"/>
-      <c r="P9" s="316"/>
-      <c r="Q9" s="316"/>
-      <c r="R9" s="316"/>
-      <c r="S9" s="316"/>
-      <c r="T9" s="316"/>
-      <c r="U9" s="316"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="317"/>
-      <c r="X9" s="318"/>
-      <c r="Y9" s="319"/>
-      <c r="Z9" s="319"/>
-      <c r="AA9" s="319"/>
-      <c r="AB9" s="319"/>
-      <c r="AC9" s="320"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="283"/>
+      <c r="Q9" s="283"/>
+      <c r="R9" s="283"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="283"/>
+      <c r="V9" s="283"/>
+      <c r="W9" s="284"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="287"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="314"/>
-      <c r="C10" s="310"/>
-      <c r="D10" s="310"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="312"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="314"/>
-      <c r="I10" s="310"/>
-      <c r="J10" s="311"/>
-      <c r="K10" s="315"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="316"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="316"/>
-      <c r="R10" s="316"/>
-      <c r="S10" s="316"/>
-      <c r="T10" s="316"/>
-      <c r="U10" s="316"/>
-      <c r="V10" s="316"/>
-      <c r="W10" s="317"/>
-      <c r="X10" s="318"/>
-      <c r="Y10" s="319"/>
-      <c r="Z10" s="319"/>
-      <c r="AA10" s="319"/>
-      <c r="AB10" s="319"/>
-      <c r="AC10" s="320"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
+      <c r="K10" s="282"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="283"/>
+      <c r="P10" s="283"/>
+      <c r="Q10" s="283"/>
+      <c r="R10" s="283"/>
+      <c r="S10" s="283"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="283"/>
+      <c r="V10" s="283"/>
+      <c r="W10" s="284"/>
+      <c r="X10" s="285"/>
+      <c r="Y10" s="286"/>
+      <c r="Z10" s="286"/>
+      <c r="AA10" s="286"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="287"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="314"/>
-      <c r="C11" s="310"/>
-      <c r="D11" s="310"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="312"/>
-      <c r="G11" s="313"/>
-      <c r="H11" s="314"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="311"/>
-      <c r="K11" s="315"/>
-      <c r="L11" s="316"/>
-      <c r="M11" s="316"/>
-      <c r="N11" s="316"/>
-      <c r="O11" s="316"/>
-      <c r="P11" s="316"/>
-      <c r="Q11" s="316"/>
-      <c r="R11" s="316"/>
-      <c r="S11" s="316"/>
-      <c r="T11" s="316"/>
-      <c r="U11" s="316"/>
-      <c r="V11" s="316"/>
-      <c r="W11" s="317"/>
-      <c r="X11" s="318"/>
-      <c r="Y11" s="319"/>
-      <c r="Z11" s="319"/>
-      <c r="AA11" s="319"/>
-      <c r="AB11" s="319"/>
-      <c r="AC11" s="320"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="279"/>
+      <c r="K11" s="282"/>
+      <c r="L11" s="283"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="283"/>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="283"/>
+      <c r="R11" s="283"/>
+      <c r="S11" s="283"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="283"/>
+      <c r="V11" s="283"/>
+      <c r="W11" s="284"/>
+      <c r="X11" s="285"/>
+      <c r="Y11" s="286"/>
+      <c r="Z11" s="286"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="286"/>
+      <c r="AC11" s="287"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="314"/>
-      <c r="C12" s="310"/>
-      <c r="D12" s="310"/>
-      <c r="E12" s="311"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="314"/>
-      <c r="I12" s="310"/>
-      <c r="J12" s="311"/>
-      <c r="K12" s="315"/>
-      <c r="L12" s="316"/>
-      <c r="M12" s="316"/>
-      <c r="N12" s="316"/>
-      <c r="O12" s="316"/>
-      <c r="P12" s="316"/>
-      <c r="Q12" s="316"/>
-      <c r="R12" s="316"/>
-      <c r="S12" s="316"/>
-      <c r="T12" s="316"/>
-      <c r="U12" s="316"/>
-      <c r="V12" s="316"/>
-      <c r="W12" s="317"/>
-      <c r="X12" s="318"/>
-      <c r="Y12" s="319"/>
-      <c r="Z12" s="319"/>
-      <c r="AA12" s="319"/>
-      <c r="AB12" s="319"/>
-      <c r="AC12" s="320"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="277"/>
+      <c r="I12" s="278"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="283"/>
+      <c r="Q12" s="283"/>
+      <c r="R12" s="283"/>
+      <c r="S12" s="283"/>
+      <c r="T12" s="283"/>
+      <c r="U12" s="283"/>
+      <c r="V12" s="283"/>
+      <c r="W12" s="284"/>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="286"/>
+      <c r="Z12" s="286"/>
+      <c r="AA12" s="286"/>
+      <c r="AB12" s="286"/>
+      <c r="AC12" s="287"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -20020,31 +20084,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -20059,11 +20103,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20165,15 +20229,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -20186,15 +20250,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -20228,15 +20292,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -20272,15 +20336,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -20343,19 +20407,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -20384,11 +20448,11 @@
       <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -20417,11 +20481,11 @@
       <c r="I15" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="358" t="s">
+      <c r="J15" s="360" t="s">
         <v>271</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -20436,9 +20500,9 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="168"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -20600,11 +20664,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -20619,12 +20683,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="156" t="s">
         <v>124</v>
       </c>
@@ -20716,10 +20780,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -20747,10 +20811,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -21383,11 +21447,11 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="360" t="s">
+      <c r="B59" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="360"/>
-      <c r="D59" s="360"/>
+      <c r="C59" s="359"/>
+      <c r="D59" s="359"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -21404,12 +21468,12 @@
     </row>
     <row r="60" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="89"/>
-      <c r="B60" s="351" t="s">
+      <c r="B60" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="352"/>
-      <c r="D60" s="352"/>
-      <c r="E60" s="353"/>
+      <c r="C60" s="345"/>
+      <c r="D60" s="345"/>
+      <c r="E60" s="346"/>
       <c r="F60" s="156" t="s">
         <v>124</v>
       </c>
@@ -21501,10 +21565,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="343" t="s">
+      <c r="D63" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="345"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="78" t="s">
         <v>140</v>
       </c>
@@ -21534,7 +21598,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="343"/>
+      <c r="D64" s="348"/>
       <c r="E64" s="357"/>
       <c r="F64" s="143"/>
       <c r="G64" s="144"/>
@@ -21551,7 +21615,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="359" t="s">
+      <c r="D65" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E65" s="357"/>
@@ -21648,8 +21712,8 @@
       <c r="A68" s="66"/>
       <c r="B68" s="97"/>
       <c r="C68" s="98"/>
-      <c r="D68" s="346"/>
-      <c r="E68" s="345"/>
+      <c r="D68" s="352"/>
+      <c r="E68" s="350"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -22039,6 +22103,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D30:E30"/>
@@ -22046,17 +22121,6 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -22161,15 +22225,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -22182,15 +22246,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -22224,15 +22288,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -22268,15 +22332,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -22339,19 +22403,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -22380,11 +22444,11 @@
       <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -22413,11 +22477,11 @@
       <c r="I15" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="358" t="s">
+      <c r="J15" s="360" t="s">
         <v>271</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -22446,11 +22510,11 @@
       <c r="I16" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="358" t="s">
+      <c r="J16" s="360" t="s">
         <v>429</v>
       </c>
-      <c r="K16" s="354"/>
-      <c r="L16" s="354"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -22479,11 +22543,11 @@
       <c r="I17" s="167" t="s">
         <v>394</v>
       </c>
-      <c r="J17" s="358" t="s">
+      <c r="J17" s="360" t="s">
         <v>428</v>
       </c>
-      <c r="K17" s="354"/>
-      <c r="L17" s="354"/>
+      <c r="K17" s="347"/>
+      <c r="L17" s="347"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -22498,9 +22562,9 @@
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
       <c r="I18" s="235"/>
-      <c r="J18" s="343"/>
-      <c r="K18" s="344"/>
-      <c r="L18" s="345"/>
+      <c r="J18" s="348"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="350"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -22662,11 +22726,11 @@
     </row>
     <row r="28" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="355" t="s">
+      <c r="B28" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="355"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
       <c r="E28" s="86"/>
       <c r="F28" s="87"/>
       <c r="G28" s="86"/>
@@ -22681,12 +22745,12 @@
     </row>
     <row r="29" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="89"/>
-      <c r="B29" s="351" t="s">
+      <c r="B29" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="352"/>
-      <c r="D29" s="352"/>
-      <c r="E29" s="353"/>
+      <c r="C29" s="345"/>
+      <c r="D29" s="345"/>
+      <c r="E29" s="346"/>
       <c r="F29" s="156" t="s">
         <v>124</v>
       </c>
@@ -22778,10 +22842,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>140</v>
       </c>
@@ -22811,10 +22875,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="346" t="s">
+      <c r="D33" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="78" t="s">
         <v>187</v>
       </c>
@@ -22877,10 +22941,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="97"/>
       <c r="C35" s="98"/>
-      <c r="D35" s="343" t="s">
+      <c r="D35" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="345"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="143" t="s">
         <v>227</v>
       </c>
@@ -22910,8 +22974,8 @@
       <c r="A36" s="66"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="343"/>
-      <c r="E36" s="345"/>
+      <c r="D36" s="348"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143"/>
       <c r="G36" s="144"/>
       <c r="H36" s="80"/>
@@ -23233,11 +23297,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="360" t="s">
+      <c r="B55" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="360"/>
-      <c r="D55" s="360"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="359"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -23254,12 +23318,12 @@
     </row>
     <row r="56" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="89"/>
-      <c r="B56" s="351" t="s">
+      <c r="B56" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="352"/>
-      <c r="D56" s="352"/>
-      <c r="E56" s="353"/>
+      <c r="C56" s="345"/>
+      <c r="D56" s="345"/>
+      <c r="E56" s="346"/>
       <c r="F56" s="156" t="s">
         <v>124</v>
       </c>
@@ -23351,10 +23415,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="91"/>
       <c r="C59" s="96"/>
-      <c r="D59" s="343" t="s">
+      <c r="D59" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="345"/>
+      <c r="E59" s="350"/>
       <c r="F59" s="78" t="s">
         <v>140</v>
       </c>
@@ -23384,7 +23448,7 @@
       <c r="A60" s="66"/>
       <c r="B60" s="91"/>
       <c r="C60" s="96"/>
-      <c r="D60" s="343"/>
+      <c r="D60" s="348"/>
       <c r="E60" s="357"/>
       <c r="F60" s="143"/>
       <c r="G60" s="144"/>
@@ -23401,7 +23465,7 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="359" t="s">
+      <c r="D61" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E61" s="357"/>
@@ -23498,8 +23562,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="97"/>
       <c r="C64" s="98"/>
-      <c r="D64" s="346"/>
-      <c r="E64" s="345"/>
+      <c r="D64" s="352"/>
+      <c r="E64" s="350"/>
       <c r="F64" s="78"/>
       <c r="G64" s="80"/>
       <c r="H64" s="80"/>
@@ -23889,16 +23953,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
@@ -23911,6 +23965,16 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -24015,14 +24079,14 @@
       <c r="B4" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="364" t="s">
+      <c r="C4" s="365" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
       <c r="I4" s="366"/>
       <c r="J4" s="171"/>
       <c r="K4" s="171"/>
@@ -24036,14 +24100,14 @@
       <c r="B5" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="364" t="s">
+      <c r="C5" s="365" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365"/>
-      <c r="G5" s="365"/>
-      <c r="H5" s="365"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
       <c r="I5" s="366"/>
       <c r="J5" s="171"/>
       <c r="K5" s="171"/>
@@ -24078,14 +24142,14 @@
       <c r="B7" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="365" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="365"/>
-      <c r="E7" s="365"/>
-      <c r="F7" s="365"/>
-      <c r="G7" s="365"/>
-      <c r="H7" s="365"/>
+      <c r="D7" s="370"/>
+      <c r="E7" s="370"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="370"/>
+      <c r="H7" s="370"/>
       <c r="I7" s="366"/>
       <c r="J7" s="171"/>
       <c r="K7" s="171"/>
@@ -24120,14 +24184,14 @@
       <c r="B9" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="364" t="s">
+      <c r="C9" s="365" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="365"/>
-      <c r="E9" s="365"/>
-      <c r="F9" s="365"/>
-      <c r="G9" s="365"/>
-      <c r="H9" s="365"/>
+      <c r="D9" s="370"/>
+      <c r="E9" s="370"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="370"/>
+      <c r="H9" s="370"/>
       <c r="I9" s="366"/>
       <c r="J9" s="171"/>
       <c r="K9" s="171"/>
@@ -24191,19 +24255,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="171"/>
-      <c r="B13" s="369" t="s">
+      <c r="B13" s="371" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="370"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="370"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="370"/>
-      <c r="L13" s="371"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="372"/>
+      <c r="H13" s="372"/>
+      <c r="I13" s="372"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="373"/>
       <c r="M13" s="171"/>
       <c r="N13" s="171"/>
       <c r="O13" s="171"/>
@@ -24232,11 +24296,11 @@
       <c r="I14" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="361" t="s">
+      <c r="J14" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
+      <c r="K14" s="363"/>
+      <c r="L14" s="374"/>
       <c r="M14" s="171"/>
       <c r="N14" s="171"/>
       <c r="O14" s="171"/>
@@ -24265,10 +24329,10 @@
       <c r="I15" s="188" t="s">
         <v>421</v>
       </c>
-      <c r="J15" s="364" t="s">
+      <c r="J15" s="365" t="s">
         <v>422</v>
       </c>
-      <c r="K15" s="365"/>
+      <c r="K15" s="370"/>
       <c r="L15" s="366"/>
       <c r="M15" s="171"/>
       <c r="N15" s="171"/>
@@ -24431,11 +24495,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="173"/>
-      <c r="B25" s="367" t="s">
+      <c r="B25" s="369" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="367"/>
-      <c r="D25" s="367"/>
+      <c r="C25" s="369"/>
+      <c r="D25" s="369"/>
       <c r="E25" s="173"/>
       <c r="F25" s="189"/>
       <c r="G25" s="173"/>
@@ -24450,12 +24514,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="190"/>
-      <c r="B26" s="361" t="s">
+      <c r="B26" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="362"/>
-      <c r="D26" s="362"/>
-      <c r="E26" s="368"/>
+      <c r="C26" s="363"/>
+      <c r="D26" s="363"/>
+      <c r="E26" s="364"/>
       <c r="F26" s="183" t="s">
         <v>124</v>
       </c>
@@ -24547,7 +24611,7 @@
       <c r="A29" s="171"/>
       <c r="B29" s="191"/>
       <c r="C29" s="196"/>
-      <c r="D29" s="364" t="s">
+      <c r="D29" s="365" t="s">
         <v>185</v>
       </c>
       <c r="E29" s="366"/>
@@ -24578,7 +24642,7 @@
       <c r="A30" s="171"/>
       <c r="B30" s="191"/>
       <c r="C30" s="197"/>
-      <c r="D30" s="364" t="s">
+      <c r="D30" s="365" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="366"/>
@@ -24983,11 +25047,11 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="171"/>
-      <c r="B59" s="367" t="s">
+      <c r="B59" s="369" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="367"/>
-      <c r="D59" s="367"/>
+      <c r="C59" s="369"/>
+      <c r="D59" s="369"/>
       <c r="E59" s="171"/>
       <c r="F59" s="171"/>
       <c r="G59" s="171"/>
@@ -25004,12 +25068,12 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="190"/>
-      <c r="B60" s="361" t="s">
+      <c r="B60" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="362"/>
-      <c r="D60" s="362"/>
-      <c r="E60" s="368"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="364"/>
       <c r="F60" s="183" t="s">
         <v>124</v>
       </c>
@@ -25101,7 +25165,7 @@
       <c r="A63" s="171"/>
       <c r="B63" s="191"/>
       <c r="C63" s="196"/>
-      <c r="D63" s="364" t="s">
+      <c r="D63" s="365" t="s">
         <v>185</v>
       </c>
       <c r="E63" s="366"/>
@@ -25134,7 +25198,7 @@
       <c r="A64" s="171"/>
       <c r="B64" s="191"/>
       <c r="C64" s="196"/>
-      <c r="D64" s="364" t="s">
+      <c r="D64" s="365" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="366"/>
@@ -25167,10 +25231,10 @@
       <c r="A65" s="171"/>
       <c r="B65" s="191"/>
       <c r="C65" s="196"/>
-      <c r="D65" s="372" t="s">
+      <c r="D65" s="367" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="373"/>
+      <c r="E65" s="368"/>
       <c r="F65" s="184" t="s">
         <v>205</v>
       </c>
@@ -25570,22 +25634,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -25690,15 +25754,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -25711,15 +25775,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -25753,15 +25817,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="352" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -25797,15 +25861,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -25868,19 +25932,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="374" t="s">
+      <c r="B13" s="381" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25909,11 +25973,11 @@
       <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25942,11 +26006,11 @@
       <c r="I15" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="375" t="s">
+      <c r="J15" s="378" t="s">
         <v>260</v>
       </c>
-      <c r="K15" s="376"/>
-      <c r="L15" s="377"/>
+      <c r="K15" s="379"/>
+      <c r="L15" s="380"/>
       <c r="M15" s="216"/>
       <c r="N15" s="216"/>
       <c r="O15" s="216"/>
@@ -25975,11 +26039,11 @@
       <c r="I16" s="215" t="s">
         <v>261</v>
       </c>
-      <c r="J16" s="378" t="s">
+      <c r="J16" s="375" t="s">
         <v>263</v>
       </c>
-      <c r="K16" s="379"/>
-      <c r="L16" s="380"/>
+      <c r="K16" s="376"/>
+      <c r="L16" s="377"/>
       <c r="M16" s="209"/>
       <c r="N16" s="209"/>
       <c r="O16" s="209"/>
@@ -26008,11 +26072,11 @@
       <c r="I17" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="378" t="s">
+      <c r="J17" s="375" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="379"/>
-      <c r="L17" s="380"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="377"/>
       <c r="M17" s="209"/>
       <c r="N17" s="209"/>
       <c r="O17" s="209"/>
@@ -26041,10 +26105,10 @@
       <c r="I18" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="343" t="s">
+      <c r="J18" s="348" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="356"/>
+      <c r="K18" s="361"/>
       <c r="L18" s="357"/>
       <c r="M18" s="209"/>
       <c r="N18" s="209"/>
@@ -26060,8 +26124,8 @@
       <c r="G19" s="144"/>
       <c r="H19" s="144"/>
       <c r="I19" s="219"/>
-      <c r="J19" s="343"/>
-      <c r="K19" s="356"/>
+      <c r="J19" s="348"/>
+      <c r="K19" s="361"/>
       <c r="L19" s="357"/>
       <c r="M19" s="209"/>
       <c r="N19" s="209"/>
@@ -26224,11 +26288,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="355" t="s">
+      <c r="B29" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="355"/>
-      <c r="D29" s="355"/>
+      <c r="C29" s="351"/>
+      <c r="D29" s="351"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -26243,12 +26307,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="351" t="s">
+      <c r="B30" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="352"/>
-      <c r="D30" s="352"/>
-      <c r="E30" s="353"/>
+      <c r="C30" s="345"/>
+      <c r="D30" s="345"/>
+      <c r="E30" s="346"/>
       <c r="F30" s="156" t="s">
         <v>124</v>
       </c>
@@ -26340,10 +26404,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="346" t="s">
+      <c r="D33" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="78" t="s">
         <v>140</v>
       </c>
@@ -26373,10 +26437,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="346" t="s">
+      <c r="D34" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="78" t="s">
         <v>187</v>
       </c>
@@ -26439,10 +26503,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>509</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>508</v>
       </c>
@@ -26778,11 +26842,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="360" t="s">
+      <c r="B55" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="360"/>
-      <c r="D55" s="360"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="359"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
@@ -26799,12 +26863,12 @@
     </row>
     <row r="56" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="89"/>
-      <c r="B56" s="351" t="s">
+      <c r="B56" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="352"/>
-      <c r="D56" s="352"/>
-      <c r="E56" s="353"/>
+      <c r="C56" s="345"/>
+      <c r="D56" s="345"/>
+      <c r="E56" s="346"/>
       <c r="F56" s="156" t="s">
         <v>124</v>
       </c>
@@ -26896,10 +26960,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="91"/>
       <c r="C59" s="96"/>
-      <c r="D59" s="343" t="s">
+      <c r="D59" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="345"/>
+      <c r="E59" s="350"/>
       <c r="F59" s="78" t="s">
         <v>140</v>
       </c>
@@ -26929,7 +26993,7 @@
       <c r="A60" s="66"/>
       <c r="B60" s="91"/>
       <c r="C60" s="96"/>
-      <c r="D60" s="343"/>
+      <c r="D60" s="348"/>
       <c r="E60" s="357"/>
       <c r="F60" s="143"/>
       <c r="G60" s="144"/>
@@ -26946,7 +27010,7 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="359" t="s">
+      <c r="D61" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E61" s="357"/>
@@ -27043,8 +27107,8 @@
       <c r="A64" s="66"/>
       <c r="B64" s="97"/>
       <c r="C64" s="98"/>
-      <c r="D64" s="346"/>
-      <c r="E64" s="345"/>
+      <c r="D64" s="352"/>
+      <c r="E64" s="350"/>
       <c r="F64" s="78"/>
       <c r="G64" s="80"/>
       <c r="H64" s="80"/>
@@ -27434,6 +27498,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D64:E64"/>
@@ -27445,17 +27520,6 @@
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -27475,8 +27539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27560,15 +27624,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27581,15 +27645,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27623,15 +27687,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27667,15 +27731,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27738,19 +27802,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27779,11 +27843,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27798,8 +27862,8 @@
       <c r="G15" s="144"/>
       <c r="H15" s="144"/>
       <c r="I15" s="230"/>
-      <c r="J15" s="343"/>
-      <c r="K15" s="356"/>
+      <c r="J15" s="348"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -27815,9 +27879,9 @@
       <c r="G16" s="144"/>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -27832,9 +27896,9 @@
       <c r="G17" s="144"/>
       <c r="H17" s="80"/>
       <c r="I17" s="236"/>
-      <c r="J17" s="343"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="345"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="350"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -27996,11 +28060,11 @@
     </row>
     <row r="27" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="355" t="s">
+      <c r="B27" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="355"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="86"/>
       <c r="F27" s="87"/>
       <c r="G27" s="86"/>
@@ -28015,12 +28079,12 @@
     </row>
     <row r="28" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="352"/>
-      <c r="E28" s="353"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="346"/>
       <c r="F28" s="160" t="s">
         <v>124</v>
       </c>
@@ -28112,10 +28176,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>140</v>
       </c>
@@ -28145,10 +28209,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="98"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>187</v>
       </c>
@@ -28211,10 +28275,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="343" t="s">
+      <c r="D34" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="143" t="s">
         <v>227</v>
       </c>
@@ -28277,10 +28341,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="101"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>284</v>
       </c>
@@ -28343,10 +28407,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
-      <c r="D38" s="343" t="s">
+      <c r="D38" s="348" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="345"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="143" t="s">
         <v>225</v>
       </c>
@@ -28682,11 +28746,11 @@
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="360" t="s">
+      <c r="B57" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="360"/>
-      <c r="D57" s="360"/>
+      <c r="C57" s="359"/>
+      <c r="D57" s="359"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -28703,12 +28767,12 @@
     </row>
     <row r="58" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="89"/>
-      <c r="B58" s="351" t="s">
+      <c r="B58" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="352"/>
-      <c r="D58" s="352"/>
-      <c r="E58" s="353"/>
+      <c r="C58" s="345"/>
+      <c r="D58" s="345"/>
+      <c r="E58" s="346"/>
       <c r="F58" s="160" t="s">
         <v>124</v>
       </c>
@@ -28800,10 +28864,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="343" t="s">
+      <c r="D61" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="345"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="78" t="s">
         <v>140</v>
       </c>
@@ -28833,7 +28897,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="343"/>
+      <c r="D62" s="348"/>
       <c r="E62" s="357"/>
       <c r="F62" s="143"/>
       <c r="G62" s="144"/>
@@ -28852,7 +28916,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="359" t="s">
+      <c r="D63" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E63" s="357"/>
@@ -28949,8 +29013,8 @@
       <c r="A66" s="66"/>
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
-      <c r="D66" s="346"/>
-      <c r="E66" s="345"/>
+      <c r="D66" s="352"/>
+      <c r="E66" s="350"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -29340,12 +29404,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D66:E66"/>
@@ -29362,6 +29420,12 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -29466,15 +29530,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29487,15 +29551,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29529,15 +29593,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29573,15 +29637,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29644,19 +29708,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29685,11 +29749,11 @@
       <c r="I14" s="273" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29704,8 +29768,8 @@
       <c r="G15" s="144"/>
       <c r="H15" s="144"/>
       <c r="I15" s="230"/>
-      <c r="J15" s="343"/>
-      <c r="K15" s="356"/>
+      <c r="J15" s="348"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -29721,9 +29785,9 @@
       <c r="G16" s="144"/>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29738,9 +29802,9 @@
       <c r="G17" s="144"/>
       <c r="H17" s="80"/>
       <c r="I17" s="236"/>
-      <c r="J17" s="343"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="345"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="350"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -29902,11 +29966,11 @@
     </row>
     <row r="27" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="355" t="s">
+      <c r="B27" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="355"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="86"/>
       <c r="F27" s="87"/>
       <c r="G27" s="86"/>
@@ -29921,12 +29985,12 @@
     </row>
     <row r="28" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="352"/>
-      <c r="E28" s="353"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="346"/>
       <c r="F28" s="273" t="s">
         <v>124</v>
       </c>
@@ -30018,10 +30082,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>140</v>
       </c>
@@ -30051,10 +30115,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="98"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>187</v>
       </c>
@@ -30117,10 +30181,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="343" t="s">
+      <c r="D34" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="143" t="s">
         <v>227</v>
       </c>
@@ -30183,10 +30247,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="101"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>284</v>
       </c>
@@ -30249,10 +30313,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
-      <c r="D38" s="343" t="s">
+      <c r="D38" s="348" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="345"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="143" t="s">
         <v>225</v>
       </c>
@@ -30588,11 +30652,11 @@
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="360" t="s">
+      <c r="B57" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="360"/>
-      <c r="D57" s="360"/>
+      <c r="C57" s="359"/>
+      <c r="D57" s="359"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -30609,12 +30673,12 @@
     </row>
     <row r="58" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="89"/>
-      <c r="B58" s="351" t="s">
+      <c r="B58" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="352"/>
-      <c r="D58" s="352"/>
-      <c r="E58" s="353"/>
+      <c r="C58" s="345"/>
+      <c r="D58" s="345"/>
+      <c r="E58" s="346"/>
       <c r="F58" s="273" t="s">
         <v>124</v>
       </c>
@@ -30706,10 +30770,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="343" t="s">
+      <c r="D61" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="345"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="78" t="s">
         <v>140</v>
       </c>
@@ -30739,7 +30803,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="343"/>
+      <c r="D62" s="348"/>
       <c r="E62" s="357"/>
       <c r="F62" s="143"/>
       <c r="G62" s="144"/>
@@ -30758,7 +30822,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="359" t="s">
+      <c r="D63" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E63" s="357"/>
@@ -30855,8 +30919,8 @@
       <c r="A66" s="66"/>
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
-      <c r="D66" s="346"/>
-      <c r="E66" s="345"/>
+      <c r="D66" s="352"/>
+      <c r="E66" s="350"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -31246,6 +31310,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
@@ -31256,18 +31332,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -31371,15 +31435,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31392,15 +31456,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31434,15 +31498,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31478,15 +31542,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31549,19 +31613,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31590,11 +31654,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31623,11 +31687,11 @@
       <c r="I15" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="358" t="s">
+      <c r="J15" s="360" t="s">
         <v>286</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31656,11 +31720,11 @@
       <c r="I16" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="358" t="s">
+      <c r="J16" s="360" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="354"/>
-      <c r="L16" s="354"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31722,11 +31786,11 @@
       <c r="I18" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="343" t="s">
+      <c r="J18" s="348" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="344"/>
-      <c r="L18" s="345"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="350"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -31755,11 +31819,11 @@
       <c r="I19" s="264">
         <v>1</v>
       </c>
-      <c r="J19" s="343" t="s">
+      <c r="J19" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="K19" s="344"/>
-      <c r="L19" s="345"/>
+      <c r="K19" s="349"/>
+      <c r="L19" s="350"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -31921,11 +31985,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="355" t="s">
+      <c r="B29" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="355"/>
-      <c r="D29" s="355"/>
+      <c r="C29" s="351"/>
+      <c r="D29" s="351"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -31940,12 +32004,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="351" t="s">
+      <c r="B30" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="352"/>
-      <c r="D30" s="352"/>
-      <c r="E30" s="353"/>
+      <c r="C30" s="345"/>
+      <c r="D30" s="345"/>
+      <c r="E30" s="346"/>
       <c r="F30" s="160" t="s">
         <v>124</v>
       </c>
@@ -32037,10 +32101,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="346" t="s">
+      <c r="D33" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="78" t="s">
         <v>140</v>
       </c>
@@ -32070,10 +32134,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="346" t="s">
+      <c r="D34" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="78" t="s">
         <v>187</v>
       </c>
@@ -32136,10 +32200,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="101"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>227</v>
       </c>
@@ -32169,10 +32233,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="101"/>
-      <c r="D37" s="343" t="s">
+      <c r="D37" s="348" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="345"/>
+      <c r="E37" s="350"/>
       <c r="F37" s="143" t="s">
         <v>262</v>
       </c>
@@ -32202,10 +32266,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="343" t="s">
+      <c r="D38" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="345"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="143" t="s">
         <v>202</v>
       </c>
@@ -32235,10 +32299,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="101"/>
-      <c r="D39" s="343" t="s">
+      <c r="D39" s="348" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="345"/>
+      <c r="E39" s="350"/>
       <c r="F39" s="143" t="s">
         <v>266</v>
       </c>
@@ -32268,10 +32332,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
-      <c r="D40" s="343" t="s">
+      <c r="D40" s="348" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="345"/>
+      <c r="E40" s="350"/>
       <c r="F40" s="143" t="s">
         <v>222</v>
       </c>
@@ -32301,10 +32365,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="253"/>
       <c r="C41" s="98"/>
-      <c r="D41" s="343" t="s">
+      <c r="D41" s="348" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="345"/>
+      <c r="E41" s="350"/>
       <c r="F41" s="143" t="s">
         <v>225</v>
       </c>
@@ -32640,11 +32704,11 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="360" t="s">
+      <c r="B60" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="360"/>
-      <c r="D60" s="360"/>
+      <c r="C60" s="359"/>
+      <c r="D60" s="359"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
@@ -32661,12 +32725,12 @@
     </row>
     <row r="61" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="89"/>
-      <c r="B61" s="351" t="s">
+      <c r="B61" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="352"/>
-      <c r="D61" s="352"/>
-      <c r="E61" s="353"/>
+      <c r="C61" s="345"/>
+      <c r="D61" s="345"/>
+      <c r="E61" s="346"/>
       <c r="F61" s="160" t="s">
         <v>124</v>
       </c>
@@ -32758,10 +32822,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="343" t="s">
+      <c r="D64" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="345"/>
+      <c r="E64" s="350"/>
       <c r="F64" s="78" t="s">
         <v>140</v>
       </c>
@@ -32791,7 +32855,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="343" t="s">
+      <c r="D65" s="348" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="357"/>
@@ -32824,7 +32888,7 @@
       <c r="A66" s="66"/>
       <c r="B66" s="91"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="359" t="s">
+      <c r="D66" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E66" s="357"/>
@@ -32921,8 +32985,8 @@
       <c r="A69" s="66"/>
       <c r="B69" s="97"/>
       <c r="C69" s="98"/>
-      <c r="D69" s="346"/>
-      <c r="E69" s="345"/>
+      <c r="D69" s="352"/>
+      <c r="E69" s="350"/>
       <c r="F69" s="78"/>
       <c r="G69" s="80"/>
       <c r="H69" s="80"/>
@@ -33312,18 +33376,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D69:E69"/>
@@ -33338,6 +33390,18 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33444,15 +33508,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33465,15 +33529,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33507,15 +33571,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33551,15 +33615,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33622,19 +33686,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33663,11 +33727,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33699,9 +33763,9 @@
       <c r="G16" s="144"/>
       <c r="H16" s="80"/>
       <c r="I16" s="236"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -33863,11 +33927,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -33882,12 +33946,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -33979,10 +34043,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -34012,10 +34076,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -34078,8 +34142,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343"/>
-      <c r="E33" s="345"/>
+      <c r="D33" s="348"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143"/>
       <c r="G33" s="144"/>
       <c r="H33" s="80"/>
@@ -34401,11 +34465,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="360" t="s">
+      <c r="B52" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="360"/>
-      <c r="D52" s="360"/>
+      <c r="C52" s="359"/>
+      <c r="D52" s="359"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -34422,12 +34486,12 @@
     </row>
     <row r="53" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="89"/>
-      <c r="B53" s="351" t="s">
+      <c r="B53" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="352"/>
-      <c r="D53" s="352"/>
-      <c r="E53" s="353"/>
+      <c r="C53" s="345"/>
+      <c r="D53" s="345"/>
+      <c r="E53" s="346"/>
       <c r="F53" s="160" t="s">
         <v>124</v>
       </c>
@@ -34519,10 +34583,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="91"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="343" t="s">
+      <c r="D56" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="345"/>
+      <c r="E56" s="350"/>
       <c r="F56" s="78" t="s">
         <v>140</v>
       </c>
@@ -34552,7 +34616,7 @@
       <c r="A57" s="66"/>
       <c r="B57" s="91"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="343"/>
+      <c r="D57" s="348"/>
       <c r="E57" s="357"/>
       <c r="F57" s="143"/>
       <c r="G57" s="144"/>
@@ -34569,7 +34633,7 @@
       <c r="A58" s="66"/>
       <c r="B58" s="91"/>
       <c r="C58" s="96"/>
-      <c r="D58" s="359" t="s">
+      <c r="D58" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E58" s="357"/>
@@ -34666,8 +34730,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="97"/>
       <c r="C61" s="98"/>
-      <c r="D61" s="346"/>
-      <c r="E61" s="345"/>
+      <c r="D61" s="352"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="78"/>
       <c r="G61" s="80"/>
       <c r="H61" s="80"/>
@@ -35057,6 +35121,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -35066,15 +35139,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -35177,15 +35241,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35198,15 +35262,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35240,15 +35304,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35284,15 +35348,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35355,19 +35419,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35396,11 +35460,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35432,9 +35496,9 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="168"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -35596,11 +35660,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -35615,12 +35679,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -35712,10 +35776,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -35743,10 +35807,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -35809,10 +35873,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343" t="s">
+      <c r="D33" s="348" t="s">
         <v>295</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143" t="s">
         <v>297</v>
       </c>
@@ -36148,11 +36212,11 @@
     </row>
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="360" t="s">
+      <c r="B66" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="360"/>
-      <c r="D66" s="360"/>
+      <c r="C66" s="359"/>
+      <c r="D66" s="359"/>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -36169,12 +36233,12 @@
     </row>
     <row r="67" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A67" s="89"/>
-      <c r="B67" s="351" t="s">
+      <c r="B67" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="352"/>
-      <c r="D67" s="352"/>
-      <c r="E67" s="353"/>
+      <c r="C67" s="345"/>
+      <c r="D67" s="345"/>
+      <c r="E67" s="346"/>
       <c r="F67" s="160" t="s">
         <v>124</v>
       </c>
@@ -36719,6 +36783,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -36728,11 +36797,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:E67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -36837,15 +36901,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -36858,15 +36922,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -36900,15 +36964,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -36944,15 +37008,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37015,19 +37079,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37056,11 +37120,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37089,10 +37153,10 @@
       <c r="I15" s="230">
         <v>1</v>
       </c>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="348" t="s">
         <v>271</v>
       </c>
-      <c r="K15" s="356"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -37108,9 +37172,9 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="168"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37272,11 +37336,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -37291,12 +37355,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -37388,10 +37452,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -37419,10 +37483,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -37485,10 +37549,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343" t="s">
+      <c r="D33" s="348" t="s">
         <v>295</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143" t="s">
         <v>297</v>
       </c>
@@ -37824,11 +37888,11 @@
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="360" t="s">
+      <c r="B64" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="360"/>
-      <c r="D64" s="360"/>
+      <c r="C64" s="359"/>
+      <c r="D64" s="359"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
       <c r="G64" s="66"/>
@@ -37845,12 +37909,12 @@
     </row>
     <row r="65" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="89"/>
-      <c r="B65" s="351" t="s">
+      <c r="B65" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="352"/>
-      <c r="D65" s="352"/>
-      <c r="E65" s="353"/>
+      <c r="C65" s="345"/>
+      <c r="D65" s="345"/>
+      <c r="E65" s="346"/>
       <c r="F65" s="160" t="s">
         <v>124</v>
       </c>
@@ -39112,15 +39176,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39133,15 +39197,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39175,15 +39239,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="352" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39219,15 +39283,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39290,19 +39354,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -39331,11 +39395,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -39397,11 +39461,11 @@
       <c r="I16" s="219">
         <v>1</v>
       </c>
-      <c r="J16" s="343" t="s">
+      <c r="J16" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -39416,9 +39480,9 @@
       <c r="G17" s="144"/>
       <c r="H17" s="144"/>
       <c r="I17" s="236"/>
-      <c r="J17" s="343"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="345"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="350"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -39580,11 +39644,11 @@
     </row>
     <row r="27" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="355" t="s">
+      <c r="B27" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="355"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="86"/>
       <c r="F27" s="87"/>
       <c r="G27" s="86"/>
@@ -39599,12 +39663,12 @@
     </row>
     <row r="28" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="352"/>
-      <c r="E28" s="353"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="346"/>
       <c r="F28" s="160" t="s">
         <v>124</v>
       </c>
@@ -39696,10 +39760,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>140</v>
       </c>
@@ -39729,10 +39793,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="98"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>187</v>
       </c>
@@ -39795,10 +39859,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="343" t="s">
+      <c r="D34" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="143" t="s">
         <v>471</v>
       </c>
@@ -39828,10 +39892,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="101"/>
-      <c r="D35" s="343" t="s">
+      <c r="D35" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="345"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="143" t="s">
         <v>472</v>
       </c>
@@ -39861,10 +39925,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="101"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>227</v>
       </c>
@@ -39959,10 +40023,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="97"/>
       <c r="C39" s="98"/>
-      <c r="D39" s="343" t="s">
+      <c r="D39" s="348" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="345"/>
+      <c r="E39" s="350"/>
       <c r="F39" s="143" t="s">
         <v>266</v>
       </c>
@@ -40298,11 +40362,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="360" t="s">
+      <c r="B58" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="360"/>
-      <c r="D58" s="360"/>
+      <c r="C58" s="359"/>
+      <c r="D58" s="359"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -40319,12 +40383,12 @@
     </row>
     <row r="59" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="89"/>
-      <c r="B59" s="351" t="s">
+      <c r="B59" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="352"/>
-      <c r="D59" s="352"/>
-      <c r="E59" s="353"/>
+      <c r="C59" s="345"/>
+      <c r="D59" s="345"/>
+      <c r="E59" s="346"/>
       <c r="F59" s="160" t="s">
         <v>124</v>
       </c>
@@ -40416,10 +40480,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="343" t="s">
+      <c r="D62" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="345"/>
+      <c r="E62" s="350"/>
       <c r="F62" s="78" t="s">
         <v>140</v>
       </c>
@@ -40449,7 +40513,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="343"/>
+      <c r="D63" s="348"/>
       <c r="E63" s="357"/>
       <c r="F63" s="143"/>
       <c r="G63" s="144"/>
@@ -40466,7 +40530,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="359" t="s">
+      <c r="D64" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E64" s="357"/>
@@ -40563,8 +40627,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="97"/>
       <c r="C67" s="98"/>
-      <c r="D67" s="346"/>
-      <c r="E67" s="345"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="350"/>
       <c r="F67" s="78"/>
       <c r="G67" s="80"/>
       <c r="H67" s="80"/>
@@ -40954,16 +41018,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D67:E67"/>
@@ -40976,6 +41030,16 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -41080,15 +41144,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41101,15 +41165,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41143,15 +41207,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41187,15 +41251,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41258,19 +41322,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41299,11 +41363,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41332,10 +41396,10 @@
       <c r="I15" s="229">
         <v>1</v>
       </c>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="348" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="356"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -41365,10 +41429,10 @@
       <c r="I16" s="85">
         <v>1</v>
       </c>
-      <c r="J16" s="343" t="s">
+      <c r="J16" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="356"/>
+      <c r="K16" s="361"/>
       <c r="L16" s="357"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
@@ -41398,10 +41462,10 @@
       <c r="I17" s="237" t="s">
         <v>313</v>
       </c>
-      <c r="J17" s="343" t="s">
+      <c r="J17" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="K17" s="356"/>
+      <c r="K17" s="361"/>
       <c r="L17" s="357"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
@@ -41564,11 +41628,11 @@
     </row>
     <row r="27" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="355" t="s">
+      <c r="B27" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="355"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="86"/>
       <c r="F27" s="87"/>
       <c r="G27" s="86"/>
@@ -41583,12 +41647,12 @@
     </row>
     <row r="28" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="89"/>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="352"/>
-      <c r="E28" s="353"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="346"/>
       <c r="F28" s="160" t="s">
         <v>124</v>
       </c>
@@ -41680,10 +41744,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>140</v>
       </c>
@@ -41713,10 +41777,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="98"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>187</v>
       </c>
@@ -41779,10 +41843,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="381" t="s">
+      <c r="D34" s="382" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="382"/>
+      <c r="E34" s="383"/>
       <c r="F34" s="143" t="s">
         <v>471</v>
       </c>
@@ -41812,10 +41876,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="101"/>
-      <c r="D35" s="343" t="s">
+      <c r="D35" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="345"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="143" t="s">
         <v>472</v>
       </c>
@@ -41845,10 +41909,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="101"/>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="345"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143" t="s">
         <v>227</v>
       </c>
@@ -41878,10 +41942,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="101"/>
-      <c r="D37" s="343" t="s">
+      <c r="D37" s="348" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="345"/>
+      <c r="E37" s="350"/>
       <c r="F37" s="143" t="s">
         <v>266</v>
       </c>
@@ -41911,10 +41975,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="343" t="s">
+      <c r="D38" s="348" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="345"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="143" t="s">
         <v>222</v>
       </c>
@@ -41944,10 +42008,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="101"/>
-      <c r="D39" s="343" t="s">
+      <c r="D39" s="348" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="345"/>
+      <c r="E39" s="350"/>
       <c r="F39" s="143" t="s">
         <v>225</v>
       </c>
@@ -41977,8 +42041,8 @@
       <c r="A40" s="66"/>
       <c r="B40" s="97"/>
       <c r="C40" s="98"/>
-      <c r="D40" s="381"/>
-      <c r="E40" s="382"/>
+      <c r="D40" s="382"/>
+      <c r="E40" s="383"/>
       <c r="F40" s="143"/>
       <c r="G40" s="144"/>
       <c r="H40" s="80" t="s">
@@ -42302,11 +42366,11 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="360" t="s">
+      <c r="B59" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="360"/>
-      <c r="D59" s="360"/>
+      <c r="C59" s="359"/>
+      <c r="D59" s="359"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
@@ -42323,12 +42387,12 @@
     </row>
     <row r="60" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="89"/>
-      <c r="B60" s="351" t="s">
+      <c r="B60" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="352"/>
-      <c r="D60" s="352"/>
-      <c r="E60" s="353"/>
+      <c r="C60" s="345"/>
+      <c r="D60" s="345"/>
+      <c r="E60" s="346"/>
       <c r="F60" s="160" t="s">
         <v>124</v>
       </c>
@@ -42420,10 +42484,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="343" t="s">
+      <c r="D63" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="345"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="78" t="s">
         <v>140</v>
       </c>
@@ -42453,7 +42517,7 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="343"/>
+      <c r="D64" s="348"/>
       <c r="E64" s="357"/>
       <c r="F64" s="143"/>
       <c r="G64" s="144"/>
@@ -42470,7 +42534,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="359" t="s">
+      <c r="D65" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E65" s="357"/>
@@ -42567,8 +42631,8 @@
       <c r="A68" s="66"/>
       <c r="B68" s="97"/>
       <c r="C68" s="98"/>
-      <c r="D68" s="346"/>
-      <c r="E68" s="345"/>
+      <c r="D68" s="352"/>
+      <c r="E68" s="350"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -42958,16 +43022,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D68:E68"/>
@@ -42984,6 +43038,16 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -43003,7 +43067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
@@ -43088,15 +43152,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -43109,15 +43173,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43151,15 +43215,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43195,15 +43259,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43266,19 +43330,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43307,11 +43371,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43340,10 +43404,10 @@
       <c r="I15" s="230">
         <v>1</v>
       </c>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="348" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="356"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -43373,11 +43437,11 @@
       <c r="I16" s="265">
         <v>1</v>
       </c>
-      <c r="J16" s="343" t="s">
+      <c r="J16" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -43539,11 +43603,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -43558,12 +43622,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -43655,10 +43719,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -43688,10 +43752,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -43754,8 +43818,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343"/>
-      <c r="E33" s="345"/>
+      <c r="D33" s="348"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143"/>
       <c r="G33" s="144"/>
       <c r="H33" s="80"/>
@@ -44077,11 +44141,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="360" t="s">
+      <c r="B52" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="360"/>
-      <c r="D52" s="360"/>
+      <c r="C52" s="359"/>
+      <c r="D52" s="359"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -44098,12 +44162,12 @@
     </row>
     <row r="53" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="89"/>
-      <c r="B53" s="351" t="s">
+      <c r="B53" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="352"/>
-      <c r="D53" s="352"/>
-      <c r="E53" s="353"/>
+      <c r="C53" s="345"/>
+      <c r="D53" s="345"/>
+      <c r="E53" s="346"/>
       <c r="F53" s="160" t="s">
         <v>124</v>
       </c>
@@ -44195,10 +44259,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="91"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="343" t="s">
+      <c r="D56" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="345"/>
+      <c r="E56" s="350"/>
       <c r="F56" s="78" t="s">
         <v>140</v>
       </c>
@@ -44228,7 +44292,7 @@
       <c r="A57" s="66"/>
       <c r="B57" s="91"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="343"/>
+      <c r="D57" s="348"/>
       <c r="E57" s="357"/>
       <c r="F57" s="143"/>
       <c r="G57" s="144"/>
@@ -44245,7 +44309,7 @@
       <c r="A58" s="66"/>
       <c r="B58" s="91"/>
       <c r="C58" s="96"/>
-      <c r="D58" s="359" t="s">
+      <c r="D58" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E58" s="357"/>
@@ -44342,8 +44406,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="97"/>
       <c r="C61" s="98"/>
-      <c r="D61" s="346"/>
-      <c r="E61" s="345"/>
+      <c r="D61" s="352"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="78"/>
       <c r="G61" s="80"/>
       <c r="H61" s="80"/>
@@ -44733,6 +44797,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -44745,13 +44816,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -44771,7 +44835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
@@ -44856,15 +44920,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44877,15 +44941,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44919,15 +44983,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44963,15 +45027,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45034,19 +45098,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45075,11 +45139,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45108,10 +45172,10 @@
       <c r="I15" s="230">
         <v>1</v>
       </c>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="356"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -45127,9 +45191,9 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="168"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -45291,11 +45355,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -45310,12 +45374,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -45407,10 +45471,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -45438,10 +45502,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -45504,10 +45568,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343" t="s">
+      <c r="D33" s="348" t="s">
         <v>320</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143" t="s">
         <v>321</v>
       </c>
@@ -45843,11 +45907,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="360" t="s">
+      <c r="B58" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="360"/>
-      <c r="D58" s="360"/>
+      <c r="C58" s="359"/>
+      <c r="D58" s="359"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -45864,12 +45928,12 @@
     </row>
     <row r="59" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="89"/>
-      <c r="B59" s="351" t="s">
+      <c r="B59" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="352"/>
-      <c r="D59" s="352"/>
-      <c r="E59" s="353"/>
+      <c r="C59" s="345"/>
+      <c r="D59" s="345"/>
+      <c r="E59" s="346"/>
       <c r="F59" s="160" t="s">
         <v>124</v>
       </c>
@@ -45961,10 +46025,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="343" t="s">
+      <c r="D62" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="345"/>
+      <c r="E62" s="350"/>
       <c r="F62" s="78" t="s">
         <v>140</v>
       </c>
@@ -45994,7 +46058,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="343"/>
+      <c r="D63" s="348"/>
       <c r="E63" s="357"/>
       <c r="F63" s="143"/>
       <c r="G63" s="144"/>
@@ -46381,6 +46445,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -46393,11 +46462,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -46417,7 +46481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
@@ -46502,15 +46566,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46523,15 +46587,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46565,15 +46629,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46609,15 +46673,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46680,19 +46744,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46721,11 +46785,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46754,10 +46818,10 @@
       <c r="I15" s="230" t="s">
         <v>476</v>
       </c>
-      <c r="J15" s="343" t="s">
+      <c r="J15" s="348" t="s">
         <v>477</v>
       </c>
-      <c r="K15" s="356"/>
+      <c r="K15" s="361"/>
       <c r="L15" s="357"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
@@ -46773,9 +46837,9 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="168"/>
-      <c r="J16" s="343"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="345"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -46937,11 +47001,11 @@
     </row>
     <row r="26" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="D26" s="355"/>
+      <c r="C26" s="351"/>
+      <c r="D26" s="351"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
       <c r="G26" s="86"/>
@@ -46956,12 +47020,12 @@
     </row>
     <row r="27" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="351" t="s">
+      <c r="B27" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="353"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="F27" s="160" t="s">
         <v>124</v>
       </c>
@@ -47053,10 +47117,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>140</v>
       </c>
@@ -47084,10 +47148,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="98"/>
-      <c r="D31" s="346" t="s">
+      <c r="D31" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="345"/>
+      <c r="E31" s="350"/>
       <c r="F31" s="78" t="s">
         <v>187</v>
       </c>
@@ -47148,10 +47212,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="343" t="s">
+      <c r="D33" s="348" t="s">
         <v>325</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="143" t="s">
         <v>326</v>
       </c>
@@ -47487,11 +47551,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="360" t="s">
+      <c r="B58" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="360"/>
-      <c r="D58" s="360"/>
+      <c r="C58" s="359"/>
+      <c r="D58" s="359"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -47508,12 +47572,12 @@
     </row>
     <row r="59" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="89"/>
-      <c r="B59" s="351" t="s">
+      <c r="B59" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="352"/>
-      <c r="D59" s="352"/>
-      <c r="E59" s="353"/>
+      <c r="C59" s="345"/>
+      <c r="D59" s="345"/>
+      <c r="E59" s="346"/>
       <c r="F59" s="160" t="s">
         <v>124</v>
       </c>
@@ -47605,10 +47669,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="343" t="s">
+      <c r="D62" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="345"/>
+      <c r="E62" s="350"/>
       <c r="F62" s="78" t="s">
         <v>140</v>
       </c>
@@ -47638,7 +47702,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="343"/>
+      <c r="D63" s="348"/>
       <c r="E63" s="357"/>
       <c r="F63" s="143"/>
       <c r="G63" s="144"/>
@@ -48025,6 +48089,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48037,11 +48106,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -48496,8 +48560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -48551,10 +48615,10 @@
       <c r="C4" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="331" t="s">
+      <c r="D4" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="331"/>
+      <c r="E4" s="326"/>
       <c r="F4" s="137" t="s">
         <v>198</v>
       </c>
@@ -48572,10 +48636,10 @@
       <c r="C5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="332" t="s">
+      <c r="D5" s="329" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="332"/>
+      <c r="E5" s="329"/>
       <c r="F5" s="141" t="s">
         <v>201</v>
       </c>
@@ -48630,10 +48694,10 @@
       <c r="C9" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="331" t="s">
+      <c r="D9" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="331"/>
+      <c r="E9" s="326"/>
       <c r="F9" s="137" t="s">
         <v>198</v>
       </c>
@@ -48645,10 +48709,10 @@
       <c r="C10" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="328" t="s">
+      <c r="D10" s="325" t="s">
         <v>328</v>
       </c>
-      <c r="E10" s="328"/>
+      <c r="E10" s="325"/>
       <c r="F10" s="136"/>
       <c r="G10" s="124"/>
       <c r="H10" s="124"/>
@@ -48660,10 +48724,10 @@
       <c r="C11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="328" t="s">
+      <c r="D11" s="325" t="s">
         <v>515</v>
       </c>
-      <c r="E11" s="328"/>
+      <c r="E11" s="325"/>
       <c r="F11" s="136"/>
       <c r="G11" s="124"/>
       <c r="H11" s="124"/>
@@ -48675,8 +48739,8 @@
       <c r="C12" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
       <c r="F12" s="136"/>
       <c r="G12" s="124"/>
       <c r="H12" s="124"/>
@@ -48688,8 +48752,8 @@
       <c r="C13" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="328"/>
-      <c r="E13" s="328"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
       <c r="F13" s="136"/>
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
@@ -48701,8 +48765,8 @@
       <c r="C14" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="328"/>
-      <c r="E14" s="328"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
       <c r="F14" s="136"/>
       <c r="G14" s="124"/>
       <c r="H14" s="124"/>
@@ -48714,8 +48778,8 @@
       <c r="C15" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="328"/>
-      <c r="E15" s="328"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
       <c r="F15" s="136"/>
       <c r="G15" s="124"/>
       <c r="H15" s="124"/>
@@ -48735,10 +48799,10 @@
       <c r="C18" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="331" t="s">
+      <c r="D18" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="331"/>
+      <c r="E18" s="326"/>
       <c r="F18" s="137" t="s">
         <v>198</v>
       </c>
@@ -48761,10 +48825,10 @@
       <c r="C20" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="D20" s="328" t="s">
+      <c r="D20" s="325" t="s">
         <v>512</v>
       </c>
-      <c r="E20" s="328"/>
+      <c r="E20" s="325"/>
       <c r="F20" s="138"/>
       <c r="G20" s="124"/>
       <c r="H20" s="124"/>
@@ -48776,10 +48840,10 @@
       <c r="C21" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="328" t="s">
+      <c r="D21" s="325" t="s">
         <v>514</v>
       </c>
-      <c r="E21" s="328"/>
+      <c r="E21" s="325"/>
       <c r="F21" s="138"/>
       <c r="G21" s="124"/>
       <c r="H21" s="124"/>
@@ -48791,8 +48855,8 @@
       <c r="C22" s="126" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
+      <c r="D22" s="325"/>
+      <c r="E22" s="325"/>
       <c r="F22" s="138"/>
       <c r="G22" s="124"/>
       <c r="H22" s="124"/>
@@ -48804,8 +48868,8 @@
       <c r="C23" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="328"/>
-      <c r="E23" s="328"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="325"/>
       <c r="F23" s="138"/>
       <c r="G23" s="124"/>
       <c r="H23" s="124"/>
@@ -48817,8 +48881,8 @@
       <c r="C24" s="126" t="s">
         <v>333</v>
       </c>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
+      <c r="D24" s="325"/>
+      <c r="E24" s="325"/>
       <c r="F24" s="138"/>
       <c r="G24" s="124"/>
       <c r="H24" s="124"/>
@@ -48838,10 +48902,10 @@
       <c r="C27" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="331" t="s">
+      <c r="D27" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="331"/>
+      <c r="E27" s="326"/>
       <c r="F27" s="137" t="s">
         <v>198</v>
       </c>
@@ -48853,10 +48917,10 @@
       <c r="C28" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="332" t="s">
+      <c r="D28" s="329" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="332"/>
+      <c r="E28" s="329"/>
       <c r="F28" s="142"/>
       <c r="G28" s="124"/>
       <c r="H28" s="124"/>
@@ -48868,10 +48932,10 @@
       <c r="C29" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="332" t="s">
+      <c r="D29" s="329" t="s">
         <v>338</v>
       </c>
-      <c r="E29" s="332"/>
+      <c r="E29" s="329"/>
       <c r="F29" s="138"/>
       <c r="G29" s="124"/>
       <c r="H29" s="124"/>
@@ -48883,10 +48947,10 @@
       <c r="C30" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="324" t="s">
+      <c r="D30" s="327" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="325"/>
+      <c r="E30" s="328"/>
       <c r="F30" s="138"/>
       <c r="G30" s="124"/>
       <c r="H30" s="124"/>
@@ -48898,10 +48962,10 @@
       <c r="C31" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="324" t="s">
+      <c r="D31" s="327" t="s">
         <v>337</v>
       </c>
-      <c r="E31" s="325"/>
+      <c r="E31" s="328"/>
       <c r="F31" s="138"/>
       <c r="G31" s="124"/>
       <c r="H31" s="124"/>
@@ -48913,10 +48977,10 @@
       <c r="C32" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="324" t="s">
+      <c r="D32" s="327" t="s">
         <v>336</v>
       </c>
-      <c r="E32" s="325"/>
+      <c r="E32" s="328"/>
       <c r="F32" s="138"/>
       <c r="G32" s="124"/>
       <c r="H32" s="124"/>
@@ -48928,10 +48992,10 @@
       <c r="C33" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="324" t="s">
+      <c r="D33" s="327" t="s">
         <v>494</v>
       </c>
-      <c r="E33" s="325"/>
+      <c r="E33" s="328"/>
       <c r="F33" s="138"/>
       <c r="G33" s="124"/>
       <c r="H33" s="124"/>
@@ -48943,10 +49007,10 @@
       <c r="C34" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="332" t="s">
+      <c r="D34" s="329" t="s">
         <v>493</v>
       </c>
-      <c r="E34" s="332"/>
+      <c r="E34" s="329"/>
       <c r="F34" s="138"/>
       <c r="G34" s="124"/>
       <c r="H34" s="124"/>
@@ -48958,10 +49022,10 @@
       <c r="C35" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="324" t="s">
+      <c r="D35" s="327" t="s">
         <v>430</v>
       </c>
-      <c r="E35" s="325"/>
+      <c r="E35" s="328"/>
       <c r="F35" s="138"/>
       <c r="G35" s="124"/>
       <c r="H35" s="124"/>
@@ -48973,10 +49037,10 @@
       <c r="C36" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="324" t="s">
+      <c r="D36" s="327" t="s">
         <v>431</v>
       </c>
-      <c r="E36" s="325"/>
+      <c r="E36" s="328"/>
       <c r="F36" s="138"/>
       <c r="G36" s="124"/>
       <c r="H36" s="124"/>
@@ -48988,10 +49052,10 @@
       <c r="C37" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="D37" s="324" t="s">
+      <c r="D37" s="327" t="s">
         <v>433</v>
       </c>
-      <c r="E37" s="325"/>
+      <c r="E37" s="328"/>
       <c r="F37" s="138"/>
       <c r="G37" s="124"/>
       <c r="H37" s="124"/>
@@ -49003,10 +49067,10 @@
       <c r="C38" s="126" t="s">
         <v>491</v>
       </c>
-      <c r="D38" s="324" t="s">
+      <c r="D38" s="327" t="s">
         <v>492</v>
       </c>
-      <c r="E38" s="325"/>
+      <c r="E38" s="328"/>
       <c r="F38" s="138"/>
       <c r="G38" s="124"/>
       <c r="H38" s="124"/>
@@ -49016,8 +49080,8 @@
         <v>12</v>
       </c>
       <c r="C39" s="126"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="325"/>
+      <c r="D39" s="327"/>
+      <c r="E39" s="328"/>
       <c r="F39" s="138"/>
       <c r="G39" s="124"/>
       <c r="H39" s="124"/>
@@ -49035,10 +49099,10 @@
       <c r="C43" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="331" t="s">
+      <c r="D43" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="331"/>
+      <c r="E43" s="326"/>
       <c r="F43" s="149" t="s">
         <v>198</v>
       </c>
@@ -49050,10 +49114,10 @@
       <c r="C44" s="126" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="328" t="s">
+      <c r="D44" s="325" t="s">
         <v>377</v>
       </c>
-      <c r="E44" s="328"/>
+      <c r="E44" s="325"/>
       <c r="F44" s="138"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1">
@@ -49063,10 +49127,10 @@
       <c r="C45" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="328" t="s">
+      <c r="D45" s="325" t="s">
         <v>378</v>
       </c>
-      <c r="E45" s="328"/>
+      <c r="E45" s="325"/>
       <c r="F45" s="138"/>
     </row>
     <row r="46" spans="2:8">
@@ -49076,10 +49140,10 @@
       <c r="C46" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="328" t="s">
+      <c r="D46" s="325" t="s">
         <v>379</v>
       </c>
-      <c r="E46" s="328"/>
+      <c r="E46" s="325"/>
       <c r="F46" s="138"/>
     </row>
     <row r="47" spans="2:8">
@@ -49089,10 +49153,10 @@
       <c r="C47" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="328" t="s">
+      <c r="D47" s="325" t="s">
         <v>513</v>
       </c>
-      <c r="E47" s="328"/>
+      <c r="E47" s="325"/>
       <c r="F47" s="138"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
@@ -49102,10 +49166,10 @@
       <c r="C48" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="329" t="s">
+      <c r="D48" s="330" t="s">
         <v>511</v>
       </c>
-      <c r="E48" s="330"/>
+      <c r="E48" s="331"/>
       <c r="F48" s="138"/>
     </row>
     <row r="49" spans="2:6">
@@ -49115,10 +49179,8 @@
       <c r="C49" s="126" t="s">
         <v>519</v>
       </c>
-      <c r="D49" s="322" t="s">
-        <v>520</v>
-      </c>
-      <c r="E49" s="323"/>
+      <c r="D49" s="323"/>
+      <c r="E49" s="324"/>
       <c r="F49" s="138"/>
     </row>
     <row r="50" spans="2:6">
@@ -49128,10 +49190,8 @@
       <c r="C50" s="126" t="s">
         <v>521</v>
       </c>
-      <c r="D50" s="328" t="s">
-        <v>522</v>
-      </c>
-      <c r="E50" s="328"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="325"/>
       <c r="F50" s="138"/>
     </row>
     <row r="53" spans="2:6">
@@ -49147,10 +49207,10 @@
       <c r="C54" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="326"/>
       <c r="F54" s="137" t="s">
         <v>198</v>
       </c>
@@ -49162,10 +49222,10 @@
       <c r="C55" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="325" t="s">
         <v>374</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="138"/>
     </row>
     <row r="56" spans="2:6" ht="20" customHeight="1">
@@ -49175,8 +49235,10 @@
       <c r="C56" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="328"/>
-      <c r="E56" s="328"/>
+      <c r="D56" s="325" t="s">
+        <v>534</v>
+      </c>
+      <c r="E56" s="325"/>
       <c r="F56" s="138"/>
     </row>
     <row r="57" spans="2:6" ht="20" customHeight="1">
@@ -49186,8 +49248,10 @@
       <c r="C57" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="328"/>
-      <c r="E57" s="328"/>
+      <c r="D57" s="325" t="s">
+        <v>535</v>
+      </c>
+      <c r="E57" s="325"/>
       <c r="F57" s="138"/>
     </row>
     <row r="58" spans="2:6" ht="20" customHeight="1">
@@ -49197,8 +49261,10 @@
       <c r="C58" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="328"/>
-      <c r="E58" s="328"/>
+      <c r="D58" s="325" t="s">
+        <v>536</v>
+      </c>
+      <c r="E58" s="325"/>
       <c r="F58" s="138"/>
     </row>
     <row r="59" spans="2:6" ht="20" customHeight="1">
@@ -49208,8 +49274,10 @@
       <c r="C59" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="328"/>
-      <c r="E59" s="328"/>
+      <c r="D59" s="325" t="s">
+        <v>537</v>
+      </c>
+      <c r="E59" s="325"/>
       <c r="F59" s="138"/>
     </row>
     <row r="60" spans="2:6" ht="20" customHeight="1">
@@ -49219,8 +49287,10 @@
       <c r="C60" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="328"/>
-      <c r="E60" s="328"/>
+      <c r="D60" s="325" t="s">
+        <v>538</v>
+      </c>
+      <c r="E60" s="325"/>
       <c r="F60" s="138"/>
     </row>
     <row r="61" spans="2:6" ht="20" customHeight="1">
@@ -49230,8 +49300,8 @@
       <c r="C61" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="328"/>
-      <c r="E61" s="328"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="325"/>
       <c r="F61" s="138"/>
     </row>
     <row r="64" spans="2:6">
@@ -49247,10 +49317,10 @@
       <c r="C65" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="331" t="s">
+      <c r="D65" s="326" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="331"/>
+      <c r="E65" s="326"/>
       <c r="F65" s="137" t="s">
         <v>198</v>
       </c>
@@ -49262,10 +49332,10 @@
       <c r="C66" s="126" t="s">
         <v>343</v>
       </c>
-      <c r="D66" s="322" t="s">
+      <c r="D66" s="323" t="s">
         <v>352</v>
       </c>
-      <c r="E66" s="323"/>
+      <c r="E66" s="324"/>
       <c r="F66" s="138"/>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1">
@@ -49275,10 +49345,10 @@
       <c r="C67" s="126" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="322" t="s">
+      <c r="D67" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="E67" s="323"/>
+      <c r="E67" s="324"/>
       <c r="F67" s="138"/>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1">
@@ -49288,10 +49358,10 @@
       <c r="C68" s="126" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="322" t="s">
+      <c r="D68" s="323" t="s">
         <v>354</v>
       </c>
-      <c r="E68" s="323"/>
+      <c r="E68" s="324"/>
       <c r="F68" s="138"/>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1">
@@ -49301,10 +49371,10 @@
       <c r="C69" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="D69" s="322" t="s">
+      <c r="D69" s="323" t="s">
         <v>355</v>
       </c>
-      <c r="E69" s="323"/>
+      <c r="E69" s="324"/>
       <c r="F69" s="138"/>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1">
@@ -49314,10 +49384,10 @@
       <c r="C70" s="126" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="322" t="s">
+      <c r="D70" s="323" t="s">
         <v>489</v>
       </c>
-      <c r="E70" s="323"/>
+      <c r="E70" s="324"/>
       <c r="F70" s="138"/>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1">
@@ -49340,10 +49410,10 @@
       <c r="C72" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="D72" s="322" t="s">
+      <c r="D72" s="323" t="s">
         <v>358</v>
       </c>
-      <c r="E72" s="323"/>
+      <c r="E72" s="324"/>
       <c r="F72" s="138"/>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1">
@@ -49353,10 +49423,10 @@
       <c r="C73" s="126" t="s">
         <v>350</v>
       </c>
-      <c r="D73" s="322" t="s">
+      <c r="D73" s="323" t="s">
         <v>360</v>
       </c>
-      <c r="E73" s="323"/>
+      <c r="E73" s="324"/>
       <c r="F73" s="138"/>
     </row>
     <row r="74" spans="2:6" ht="15" customHeight="1">
@@ -49366,10 +49436,10 @@
       <c r="C74" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="D74" s="322" t="s">
+      <c r="D74" s="323" t="s">
         <v>362</v>
       </c>
-      <c r="E74" s="323"/>
+      <c r="E74" s="324"/>
       <c r="F74" s="138"/>
     </row>
     <row r="75" spans="2:6" ht="15" customHeight="1">
@@ -49379,10 +49449,10 @@
       <c r="C75" s="126" t="s">
         <v>365</v>
       </c>
-      <c r="D75" s="322" t="s">
+      <c r="D75" s="323" t="s">
         <v>364</v>
       </c>
-      <c r="E75" s="323"/>
+      <c r="E75" s="324"/>
       <c r="F75" s="138"/>
     </row>
     <row r="76" spans="2:6" ht="15" customHeight="1">
@@ -49392,10 +49462,10 @@
       <c r="C76" s="126" t="s">
         <v>366</v>
       </c>
-      <c r="D76" s="322" t="s">
+      <c r="D76" s="323" t="s">
         <v>367</v>
       </c>
-      <c r="E76" s="323"/>
+      <c r="E76" s="324"/>
       <c r="F76" s="138"/>
     </row>
     <row r="77" spans="2:6" ht="15" customHeight="1">
@@ -49405,10 +49475,10 @@
       <c r="C77" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="D77" s="326" t="s">
+      <c r="D77" s="332" t="s">
         <v>370</v>
       </c>
-      <c r="E77" s="327"/>
+      <c r="E77" s="333"/>
       <c r="F77" s="138"/>
     </row>
     <row r="78" spans="2:6" ht="15" customHeight="1">
@@ -49418,10 +49488,10 @@
       <c r="C78" s="126" t="s">
         <v>478</v>
       </c>
-      <c r="D78" s="326" t="s">
+      <c r="D78" s="332" t="s">
         <v>373</v>
       </c>
-      <c r="E78" s="327"/>
+      <c r="E78" s="333"/>
       <c r="F78" s="138"/>
     </row>
     <row r="79" spans="2:6" ht="15" customHeight="1">
@@ -49431,10 +49501,10 @@
       <c r="C79" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="D79" s="326" t="s">
+      <c r="D79" s="332" t="s">
         <v>480</v>
       </c>
-      <c r="E79" s="327"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="138"/>
     </row>
     <row r="80" spans="2:6" ht="15" customHeight="1">
@@ -49444,10 +49514,10 @@
       <c r="C80" s="126" t="s">
         <v>488</v>
       </c>
-      <c r="D80" s="326" t="s">
+      <c r="D80" s="332" t="s">
         <v>481</v>
       </c>
-      <c r="E80" s="327"/>
+      <c r="E80" s="333"/>
       <c r="F80" s="138"/>
     </row>
     <row r="81" spans="2:6" ht="15" customHeight="1">
@@ -49457,10 +49527,10 @@
       <c r="C81" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D81" s="322" t="s">
+      <c r="D81" s="323" t="s">
         <v>520</v>
       </c>
-      <c r="E81" s="323"/>
+      <c r="E81" s="324"/>
       <c r="F81" s="138"/>
     </row>
     <row r="82" spans="2:6" ht="15" customHeight="1">
@@ -49470,10 +49540,10 @@
       <c r="C82" s="126" t="s">
         <v>523</v>
       </c>
-      <c r="D82" s="328" t="s">
+      <c r="D82" s="325" t="s">
         <v>522</v>
       </c>
-      <c r="E82" s="328"/>
+      <c r="E82" s="325"/>
       <c r="F82" s="138"/>
     </row>
     <row r="83" spans="2:6" ht="15" customHeight="1">
@@ -49486,16 +49556,63 @@
     <row r="84" spans="2:6" ht="15" customHeight="1">
       <c r="B84" s="125"/>
       <c r="C84" s="126"/>
-      <c r="D84" s="322"/>
-      <c r="E84" s="323"/>
+      <c r="D84" s="323"/>
+      <c r="E84" s="324"/>
       <c r="F84" s="138"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="D85" s="383"/>
-      <c r="E85" s="383"/>
+      <c r="D85" s="322"/>
+      <c r="E85" s="322"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
@@ -49512,53 +49629,6 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49575,7 +49645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -49639,10 +49709,10 @@
       <c r="D4" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="334" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="334"/>
+      <c r="F4" s="335"/>
       <c r="G4" s="103" t="s">
         <v>154</v>
       </c>
@@ -49657,7 +49727,7 @@
       <c r="C5" s="256" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="335" t="s">
+      <c r="D5" s="336" t="s">
         <v>484</v>
       </c>
       <c r="E5" s="106" t="s">
@@ -49682,7 +49752,7 @@
       <c r="C6" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="336"/>
+      <c r="D6" s="337"/>
       <c r="E6" s="106" t="s">
         <v>153</v>
       </c>
@@ -49705,7 +49775,7 @@
       <c r="C7" s="255" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="336"/>
+      <c r="D7" s="337"/>
       <c r="E7" s="106" t="s">
         <v>234</v>
       </c>
@@ -49728,7 +49798,7 @@
       <c r="C8" s="255" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="336"/>
+      <c r="D8" s="337"/>
       <c r="E8" s="221" t="s">
         <v>249</v>
       </c>
@@ -49751,7 +49821,7 @@
       <c r="C9" s="255" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="336"/>
+      <c r="D9" s="337"/>
       <c r="E9" s="106" t="s">
         <v>234</v>
       </c>
@@ -49774,7 +49844,7 @@
       <c r="C10" s="255" t="s">
         <v>413</v>
       </c>
-      <c r="D10" s="336"/>
+      <c r="D10" s="337"/>
       <c r="E10" s="221" t="s">
         <v>249</v>
       </c>
@@ -49799,7 +49869,7 @@
       <c r="C11" s="255" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="337"/>
+      <c r="D11" s="338"/>
       <c r="E11" s="106" t="s">
         <v>234</v>
       </c>
@@ -49822,7 +49892,7 @@
       <c r="C12" s="257" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="338" t="s">
+      <c r="D12" s="339" t="s">
         <v>485</v>
       </c>
       <c r="E12" s="111" t="s">
@@ -49847,7 +49917,7 @@
       <c r="C13" s="257" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="339"/>
+      <c r="D13" s="340"/>
       <c r="E13" s="225" t="s">
         <v>234</v>
       </c>
@@ -49872,7 +49942,7 @@
       <c r="C14" s="257" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="339"/>
+      <c r="D14" s="340"/>
       <c r="E14" s="225" t="s">
         <v>234</v>
       </c>
@@ -49895,7 +49965,7 @@
       <c r="C15" s="257" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="339"/>
+      <c r="D15" s="340"/>
       <c r="E15" s="111" t="s">
         <v>234</v>
       </c>
@@ -49918,7 +49988,7 @@
       <c r="C16" s="257" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="339"/>
+      <c r="D16" s="340"/>
       <c r="E16" s="111" t="s">
         <v>304</v>
       </c>
@@ -49941,7 +50011,7 @@
       <c r="C17" s="257" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="339"/>
+      <c r="D17" s="340"/>
       <c r="E17" s="111" t="s">
         <v>249</v>
       </c>
@@ -49964,7 +50034,7 @@
       <c r="C18" s="257" t="s">
         <v>425</v>
       </c>
-      <c r="D18" s="339"/>
+      <c r="D18" s="340"/>
       <c r="E18" s="111" t="s">
         <v>249</v>
       </c>
@@ -49985,7 +50055,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="110"/>
-      <c r="D19" s="339"/>
+      <c r="D19" s="340"/>
       <c r="E19" s="111"/>
       <c r="F19" s="112"/>
       <c r="G19" s="112"/>
@@ -49998,7 +50068,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="110"/>
-      <c r="D20" s="339"/>
+      <c r="D20" s="340"/>
       <c r="E20" s="111"/>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
@@ -50013,7 +50083,7 @@
       <c r="C21" s="258" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="340" t="s">
+      <c r="D21" s="341" t="s">
         <v>486</v>
       </c>
       <c r="E21" s="115" t="s">
@@ -50038,7 +50108,7 @@
       <c r="C22" s="258" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="341"/>
+      <c r="D22" s="342"/>
       <c r="E22" s="115" t="s">
         <v>234</v>
       </c>
@@ -50061,7 +50131,7 @@
       <c r="C23" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="341"/>
+      <c r="D23" s="342"/>
       <c r="E23" s="115" t="s">
         <v>304</v>
       </c>
@@ -50084,7 +50154,7 @@
       <c r="C24" s="258" t="s">
         <v>420</v>
       </c>
-      <c r="D24" s="341"/>
+      <c r="D24" s="342"/>
       <c r="E24" s="115" t="s">
         <v>249</v>
       </c>
@@ -50107,7 +50177,7 @@
       <c r="C25" s="258" t="s">
         <v>419</v>
       </c>
-      <c r="D25" s="341"/>
+      <c r="D25" s="342"/>
       <c r="E25" s="115" t="s">
         <v>249</v>
       </c>
@@ -50128,7 +50198,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="114"/>
-      <c r="D26" s="342"/>
+      <c r="D26" s="343"/>
       <c r="E26" s="115"/>
       <c r="F26" s="116"/>
       <c r="G26" s="116"/>
@@ -50336,15 +50406,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -50357,15 +50427,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="346" t="s">
+      <c r="C5" s="352" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -50399,15 +50469,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="352" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -50441,15 +50511,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -50512,19 +50582,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50553,11 +50623,11 @@
       <c r="I14" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50586,11 +50656,11 @@
       <c r="I15" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="J15" s="354" t="s">
+      <c r="J15" s="347" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -50619,11 +50689,11 @@
       <c r="I16" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="354" t="s">
+      <c r="J16" s="347" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="354"/>
-      <c r="L16" s="354"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50685,11 +50755,11 @@
       <c r="I18" s="145" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="346" t="s">
+      <c r="J18" s="352" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="344"/>
-      <c r="L18" s="345"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="350"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -50787,9 +50857,9 @@
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
       <c r="I22" s="168"/>
-      <c r="J22" s="343"/>
-      <c r="K22" s="344"/>
-      <c r="L22" s="345"/>
+      <c r="J22" s="348"/>
+      <c r="K22" s="349"/>
+      <c r="L22" s="350"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
@@ -50951,11 +51021,11 @@
     </row>
     <row r="36" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="355" t="s">
+      <c r="B36" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="355"/>
-      <c r="D36" s="355"/>
+      <c r="C36" s="351"/>
+      <c r="D36" s="351"/>
       <c r="E36" s="86"/>
       <c r="F36" s="87"/>
       <c r="G36" s="86"/>
@@ -50970,12 +51040,12 @@
     </row>
     <row r="37" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="89"/>
-      <c r="B37" s="351" t="s">
+      <c r="B37" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="352"/>
-      <c r="D37" s="352"/>
-      <c r="E37" s="353"/>
+      <c r="C37" s="345"/>
+      <c r="D37" s="345"/>
+      <c r="E37" s="346"/>
       <c r="F37" s="76" t="s">
         <v>124</v>
       </c>
@@ -52357,18 +52427,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
@@ -52475,15 +52545,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -52496,15 +52566,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -52538,15 +52608,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -52580,14 +52650,14 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="356"/>
-      <c r="E9" s="356"/>
-      <c r="F9" s="356"/>
-      <c r="G9" s="356"/>
-      <c r="H9" s="356"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="361"/>
+      <c r="H9" s="361"/>
       <c r="I9" s="357"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -52651,19 +52721,19 @@
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -52692,11 +52762,11 @@
       <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -52725,11 +52795,11 @@
       <c r="I15" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="354" t="s">
+      <c r="J15" s="347" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -52758,11 +52828,11 @@
       <c r="I16" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="358" t="s">
+      <c r="J16" s="360" t="s">
         <v>435</v>
       </c>
-      <c r="K16" s="354"/>
-      <c r="L16" s="354"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -52794,9 +52864,9 @@
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
       <c r="I18" s="168"/>
-      <c r="J18" s="343"/>
-      <c r="K18" s="344"/>
-      <c r="L18" s="345"/>
+      <c r="J18" s="348"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="350"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -52958,11 +53028,11 @@
     </row>
     <row r="28" spans="1:15" s="88" customFormat="1" ht="15">
       <c r="A28" s="69"/>
-      <c r="B28" s="355" t="s">
+      <c r="B28" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="355"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
       <c r="E28" s="86"/>
       <c r="F28" s="87"/>
       <c r="G28" s="86"/>
@@ -52977,12 +53047,12 @@
     </row>
     <row r="29" spans="1:15" s="90" customFormat="1" ht="15">
       <c r="A29" s="89"/>
-      <c r="B29" s="351" t="s">
+      <c r="B29" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="352"/>
-      <c r="D29" s="352"/>
-      <c r="E29" s="353"/>
+      <c r="C29" s="345"/>
+      <c r="D29" s="345"/>
+      <c r="E29" s="346"/>
       <c r="F29" s="156" t="s">
         <v>124</v>
       </c>
@@ -53074,10 +53144,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="346" t="s">
+      <c r="D32" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="345"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="78" t="s">
         <v>140</v>
       </c>
@@ -53107,10 +53177,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="98"/>
-      <c r="D33" s="346" t="s">
+      <c r="D33" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="345"/>
+      <c r="E33" s="350"/>
       <c r="F33" s="78" t="s">
         <v>187</v>
       </c>
@@ -53173,10 +53243,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="101"/>
-      <c r="D35" s="343" t="s">
+      <c r="D35" s="348" t="s">
         <v>387</v>
       </c>
-      <c r="E35" s="345"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="143" t="s">
         <v>388</v>
       </c>
@@ -53204,8 +53274,8 @@
       <c r="A36" s="66"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="343"/>
-      <c r="E36" s="345"/>
+      <c r="D36" s="348"/>
+      <c r="E36" s="350"/>
       <c r="F36" s="143"/>
       <c r="G36" s="144"/>
       <c r="H36" s="170"/>
@@ -53575,11 +53645,11 @@
     </row>
     <row r="67" spans="1:15" ht="15">
       <c r="A67" s="66"/>
-      <c r="B67" s="360" t="s">
+      <c r="B67" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="360"/>
-      <c r="D67" s="360"/>
+      <c r="C67" s="359"/>
+      <c r="D67" s="359"/>
       <c r="E67" s="66"/>
       <c r="F67" s="66"/>
       <c r="G67" s="66"/>
@@ -53611,12 +53681,12 @@
     </row>
     <row r="69" spans="1:15" s="90" customFormat="1" ht="15">
       <c r="A69" s="89"/>
-      <c r="B69" s="351" t="s">
+      <c r="B69" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="352"/>
-      <c r="D69" s="352"/>
-      <c r="E69" s="353"/>
+      <c r="C69" s="345"/>
+      <c r="D69" s="345"/>
+      <c r="E69" s="346"/>
       <c r="F69" s="156" t="s">
         <v>124</v>
       </c>
@@ -53708,10 +53778,10 @@
       <c r="A72" s="66"/>
       <c r="B72" s="91"/>
       <c r="C72" s="96"/>
-      <c r="D72" s="343" t="s">
+      <c r="D72" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="345"/>
+      <c r="E72" s="350"/>
       <c r="F72" s="78" t="s">
         <v>140</v>
       </c>
@@ -53741,7 +53811,7 @@
       <c r="A73" s="66"/>
       <c r="B73" s="91"/>
       <c r="C73" s="96"/>
-      <c r="D73" s="343"/>
+      <c r="D73" s="348"/>
       <c r="E73" s="357"/>
       <c r="F73" s="143"/>
       <c r="G73" s="144"/>
@@ -53758,7 +53828,7 @@
       <c r="A74" s="66"/>
       <c r="B74" s="91"/>
       <c r="C74" s="96"/>
-      <c r="D74" s="359" t="s">
+      <c r="D74" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E74" s="357"/>
@@ -53855,8 +53925,8 @@
       <c r="A77" s="66"/>
       <c r="B77" s="97"/>
       <c r="C77" s="98"/>
-      <c r="D77" s="346"/>
-      <c r="E77" s="345"/>
+      <c r="D77" s="352"/>
+      <c r="E77" s="350"/>
       <c r="F77" s="78"/>
       <c r="G77" s="80"/>
       <c r="H77" s="80"/>
@@ -54008,13 +54078,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D35:E35"/>
@@ -54023,12 +54092,13 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -54133,15 +54203,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -54154,15 +54224,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -54196,15 +54266,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -54240,15 +54310,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="346" t="s">
+      <c r="C9" s="352" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -54311,19 +54381,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -54352,11 +54422,11 @@
       <c r="I14" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -54385,9 +54455,9 @@
       <c r="I15" s="235" t="s">
         <v>389</v>
       </c>
-      <c r="J15" s="343"/>
-      <c r="K15" s="344"/>
-      <c r="L15" s="345"/>
+      <c r="J15" s="348"/>
+      <c r="K15" s="349"/>
+      <c r="L15" s="350"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -54549,11 +54619,11 @@
     </row>
     <row r="25" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="355" t="s">
+      <c r="B25" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="355"/>
-      <c r="D25" s="355"/>
+      <c r="C25" s="351"/>
+      <c r="D25" s="351"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -54568,12 +54638,12 @@
     </row>
     <row r="26" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="351" t="s">
+      <c r="B26" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="352"/>
-      <c r="D26" s="352"/>
-      <c r="E26" s="353"/>
+      <c r="C26" s="345"/>
+      <c r="D26" s="345"/>
+      <c r="E26" s="346"/>
       <c r="F26" s="160" t="s">
         <v>124</v>
       </c>
@@ -54665,10 +54735,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="346" t="s">
+      <c r="D29" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="345"/>
+      <c r="E29" s="350"/>
       <c r="F29" s="78" t="s">
         <v>140</v>
       </c>
@@ -54698,10 +54768,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="346" t="s">
+      <c r="D30" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="345"/>
+      <c r="E30" s="350"/>
       <c r="F30" s="78" t="s">
         <v>187</v>
       </c>
@@ -54764,8 +54834,8 @@
       <c r="A32" s="66"/>
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
-      <c r="D32" s="343"/>
-      <c r="E32" s="345"/>
+      <c r="D32" s="348"/>
+      <c r="E32" s="350"/>
       <c r="F32" s="143"/>
       <c r="G32" s="144"/>
       <c r="H32" s="80"/>
@@ -55087,11 +55157,11 @@
     </row>
     <row r="51" spans="1:15" ht="20" customHeight="1">
       <c r="A51" s="66"/>
-      <c r="B51" s="360" t="s">
+      <c r="B51" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="360"/>
-      <c r="D51" s="360"/>
+      <c r="C51" s="359"/>
+      <c r="D51" s="359"/>
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
       <c r="G51" s="66"/>
@@ -55108,12 +55178,12 @@
     </row>
     <row r="52" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="89"/>
-      <c r="B52" s="351" t="s">
+      <c r="B52" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="352"/>
-      <c r="D52" s="352"/>
-      <c r="E52" s="353"/>
+      <c r="C52" s="345"/>
+      <c r="D52" s="345"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="160" t="s">
         <v>124</v>
       </c>
@@ -55205,10 +55275,10 @@
       <c r="A55" s="66"/>
       <c r="B55" s="91"/>
       <c r="C55" s="96"/>
-      <c r="D55" s="343" t="s">
+      <c r="D55" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="345"/>
+      <c r="E55" s="350"/>
       <c r="F55" s="78" t="s">
         <v>140</v>
       </c>
@@ -55238,7 +55308,7 @@
       <c r="A56" s="66"/>
       <c r="B56" s="91"/>
       <c r="C56" s="96"/>
-      <c r="D56" s="343"/>
+      <c r="D56" s="348"/>
       <c r="E56" s="357"/>
       <c r="F56" s="143"/>
       <c r="G56" s="144"/>
@@ -55255,7 +55325,7 @@
       <c r="A57" s="66"/>
       <c r="B57" s="91"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="359" t="s">
+      <c r="D57" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E57" s="357"/>
@@ -55352,8 +55422,8 @@
       <c r="A60" s="66"/>
       <c r="B60" s="97"/>
       <c r="C60" s="98"/>
-      <c r="D60" s="343"/>
-      <c r="E60" s="345"/>
+      <c r="D60" s="348"/>
+      <c r="E60" s="350"/>
       <c r="F60" s="78"/>
       <c r="G60" s="80"/>
       <c r="H60" s="80"/>
@@ -55743,6 +55813,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -55752,15 +55831,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'API List'!A1" display="⬅︎ API list"/>
@@ -55867,15 +55937,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="348" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -55888,15 +55958,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="348" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -55930,15 +56000,15 @@
       <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="343" t="s">
+      <c r="C7" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="345"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="349"/>
+      <c r="I7" s="350"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -55974,15 +56044,15 @@
       <c r="B9" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="348" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="350"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -56045,19 +56115,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="350"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56086,11 +56156,11 @@
       <c r="I14" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="347"/>
-      <c r="L14" s="347"/>
+      <c r="K14" s="353"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56119,11 +56189,11 @@
       <c r="I15" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="J15" s="354" t="s">
+      <c r="J15" s="347" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="354"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="347"/>
+      <c r="L15" s="347"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56185,11 +56255,11 @@
       <c r="I17" s="145" t="s">
         <v>217</v>
       </c>
-      <c r="J17" s="346" t="s">
+      <c r="J17" s="352" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="344"/>
-      <c r="L17" s="345"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="350"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -56270,9 +56340,9 @@
       <c r="G20" s="144"/>
       <c r="H20" s="80"/>
       <c r="I20" s="236"/>
-      <c r="J20" s="343"/>
-      <c r="K20" s="344"/>
-      <c r="L20" s="345"/>
+      <c r="J20" s="348"/>
+      <c r="K20" s="349"/>
+      <c r="L20" s="350"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -56434,11 +56504,11 @@
     </row>
     <row r="30" spans="1:15" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="355" t="s">
+      <c r="B30" s="351" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="355"/>
-      <c r="D30" s="355"/>
+      <c r="C30" s="351"/>
+      <c r="D30" s="351"/>
       <c r="E30" s="86"/>
       <c r="F30" s="87"/>
       <c r="G30" s="86"/>
@@ -56453,12 +56523,12 @@
     </row>
     <row r="31" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="89"/>
-      <c r="B31" s="351" t="s">
+      <c r="B31" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="352"/>
-      <c r="D31" s="352"/>
-      <c r="E31" s="353"/>
+      <c r="C31" s="345"/>
+      <c r="D31" s="345"/>
+      <c r="E31" s="346"/>
       <c r="F31" s="156" t="s">
         <v>124</v>
       </c>
@@ -56550,10 +56620,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="346" t="s">
+      <c r="D34" s="352" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="345"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="78" t="s">
         <v>140</v>
       </c>
@@ -56583,10 +56653,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="98"/>
-      <c r="D35" s="346" t="s">
+      <c r="D35" s="352" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="345"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="78" t="s">
         <v>187</v>
       </c>
@@ -56649,10 +56719,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="101"/>
-      <c r="D37" s="343" t="s">
+      <c r="D37" s="348" t="s">
         <v>226</v>
       </c>
-      <c r="E37" s="345"/>
+      <c r="E37" s="350"/>
       <c r="F37" s="143" t="s">
         <v>227</v>
       </c>
@@ -56682,10 +56752,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="343" t="s">
+      <c r="D38" s="348" t="s">
         <v>252</v>
       </c>
-      <c r="E38" s="345"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="143" t="s">
         <v>160</v>
       </c>
@@ -56715,10 +56785,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="101"/>
-      <c r="D39" s="343" t="s">
+      <c r="D39" s="348" t="s">
         <v>238</v>
       </c>
-      <c r="E39" s="345"/>
+      <c r="E39" s="350"/>
       <c r="F39" s="143" t="s">
         <v>172</v>
       </c>
@@ -56748,10 +56818,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="101"/>
-      <c r="D40" s="343" t="s">
+      <c r="D40" s="348" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="345"/>
+      <c r="E40" s="350"/>
       <c r="F40" s="143" t="s">
         <v>171</v>
       </c>
@@ -56781,10 +56851,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="101"/>
-      <c r="D41" s="343" t="s">
+      <c r="D41" s="348" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="345"/>
+      <c r="E41" s="350"/>
       <c r="F41" s="143" t="s">
         <v>178</v>
       </c>
@@ -56814,10 +56884,10 @@
       <c r="A42" s="66"/>
       <c r="B42" s="91"/>
       <c r="C42" s="101"/>
-      <c r="D42" s="343" t="s">
+      <c r="D42" s="348" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="345"/>
+      <c r="E42" s="350"/>
       <c r="F42" s="143" t="s">
         <v>220</v>
       </c>
@@ -56847,7 +56917,7 @@
       <c r="A43" s="66"/>
       <c r="B43" s="91"/>
       <c r="C43" s="101"/>
-      <c r="D43" s="343" t="s">
+      <c r="D43" s="348" t="s">
         <v>221</v>
       </c>
       <c r="E43" s="357"/>
@@ -56880,7 +56950,7 @@
       <c r="A44" s="66"/>
       <c r="B44" s="97"/>
       <c r="C44" s="98"/>
-      <c r="D44" s="343" t="s">
+      <c r="D44" s="348" t="s">
         <v>224</v>
       </c>
       <c r="E44" s="357"/>
@@ -57219,11 +57289,11 @@
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="360" t="s">
+      <c r="B63" s="359" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="360"/>
-      <c r="D63" s="360"/>
+      <c r="C63" s="359"/>
+      <c r="D63" s="359"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
       <c r="G63" s="66"/>
@@ -57240,12 +57310,12 @@
     </row>
     <row r="64" spans="1:15" s="90" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="89"/>
-      <c r="B64" s="351" t="s">
+      <c r="B64" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="352"/>
-      <c r="D64" s="352"/>
-      <c r="E64" s="353"/>
+      <c r="C64" s="345"/>
+      <c r="D64" s="345"/>
+      <c r="E64" s="346"/>
       <c r="F64" s="156" t="s">
         <v>124</v>
       </c>
@@ -57337,10 +57407,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="343" t="s">
+      <c r="D67" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="345"/>
+      <c r="E67" s="350"/>
       <c r="F67" s="78" t="s">
         <v>140</v>
       </c>
@@ -57370,7 +57440,7 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="343"/>
+      <c r="D68" s="348"/>
       <c r="E68" s="357"/>
       <c r="F68" s="143"/>
       <c r="G68" s="144"/>
@@ -57387,7 +57457,7 @@
       <c r="A69" s="66"/>
       <c r="B69" s="91"/>
       <c r="C69" s="96"/>
-      <c r="D69" s="359" t="s">
+      <c r="D69" s="358" t="s">
         <v>207</v>
       </c>
       <c r="E69" s="357"/>
@@ -57484,8 +57554,8 @@
       <c r="A72" s="66"/>
       <c r="B72" s="97"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="346"/>
-      <c r="E72" s="345"/>
+      <c r="D72" s="352"/>
+      <c r="E72" s="350"/>
       <c r="F72" s="78"/>
       <c r="G72" s="80"/>
       <c r="H72" s="80"/>
@@ -57875,11 +57945,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D34:E34"/>
@@ -57896,12 +57967,11 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
